--- a/Статы юнитов/Ангельский союз.xlsx
+++ b/Статы юнитов/Ангельский союз.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Git\DocumentationRepo\Статы юнитов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB48F3-24AF-480F-A86E-0B6EA9D8603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F81920-B93D-4361-9A70-4040AF1B40A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CEC3F96-7DAF-4D86-B268-86E324EF35C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Базовые характеристики" sheetId="1" r:id="rId1"/>
-    <sheet name="Оружие" sheetId="2" r:id="rId2"/>
+    <sheet name="Дочери" sheetId="3" r:id="rId1"/>
+    <sheet name="Базовые характеристики" sheetId="1" r:id="rId2"/>
+    <sheet name="Оружие" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="195">
   <si>
     <t>Наименование</t>
   </si>
@@ -197,9 +198,6 @@
     <t>Вестники слова</t>
   </si>
   <si>
-    <t>Тип шаблона</t>
-  </si>
-  <si>
     <t>SLAUGHTER QUEEN</t>
   </si>
   <si>
@@ -276,14 +274,371 @@
   </si>
   <si>
     <t>HAG QUEEN ON CAULDRON OF BLOOD</t>
+  </si>
+  <si>
+    <t>Бафф на ренд, выберите героя, на ролл 2d6&gt; текущего здоровья смерть</t>
+  </si>
+  <si>
+    <t>Просветитель</t>
+  </si>
+  <si>
+    <t>BLOODWRACK MEDUSA</t>
+  </si>
+  <si>
+    <t>BLOODWRACK SHRINE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Wnd</t>
+  </si>
+  <si>
+    <t>Rnd</t>
+  </si>
+  <si>
+    <t>Dmg</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Model Count</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>KHAINITE SHADOWSTALKERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base </t>
+  </si>
+  <si>
+    <t>Khinerai Lifetakers</t>
+  </si>
+  <si>
+    <t>Khinerai Heartrenders</t>
+  </si>
+  <si>
+    <t>Blood Sisters</t>
+  </si>
+  <si>
+    <t>Blood Stalkers</t>
+  </si>
+  <si>
+    <t>Witch Aelves with Paired Sciansá</t>
+  </si>
+  <si>
+    <t>Witch Aelves with Bladed Bucklers</t>
+  </si>
+  <si>
+    <t>Sisters of Slaughter with Bladed Bucklers</t>
+  </si>
+  <si>
+    <t>Sisters of Slaughter with Sacrificial Knives</t>
+  </si>
+  <si>
+    <t>Doomfire Warlocks</t>
+  </si>
+  <si>
+    <t>60x35</t>
+  </si>
+  <si>
+    <t>High Gladiatrix</t>
+  </si>
+  <si>
+    <t>Slaughter Queen</t>
+  </si>
+  <si>
+    <t>Slaughter Queen on Cauldron of Blood</t>
+  </si>
+  <si>
+    <t>120x92</t>
+  </si>
+  <si>
+    <t>Hag Queen</t>
+  </si>
+  <si>
+    <t>Hag Queen on Cauldron of Blood</t>
+  </si>
+  <si>
+    <t>Melusai Ironscale</t>
+  </si>
+  <si>
+    <t>Bloodwrack Medusa</t>
+  </si>
+  <si>
+    <t>Bloodwrack Shrine</t>
+  </si>
+  <si>
+    <t>Krethusa the Croneseer</t>
+  </si>
+  <si>
+    <t>Morathi-Khaine</t>
+  </si>
+  <si>
+    <t>The Shadow Queen</t>
+  </si>
+  <si>
+    <t>Khainite Shadowstalkers</t>
+  </si>
+  <si>
+    <t>IsHero</t>
+  </si>
+  <si>
+    <t>Banish</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Heart of Fury</t>
+  </si>
+  <si>
+    <t>Bladewind</t>
+  </si>
+  <si>
+    <t>Bloodwrack Viper</t>
+  </si>
+  <si>
+    <t>5 priest</t>
+  </si>
+  <si>
+    <t>Health total</t>
+  </si>
+  <si>
+    <t>Effective health</t>
+  </si>
+  <si>
+    <t>IsWizard</t>
+  </si>
+  <si>
+    <t>IsPriest</t>
+  </si>
+  <si>
+    <t>Avatar of Khaine</t>
+  </si>
+  <si>
+    <t>HaveChampion</t>
+  </si>
+  <si>
+    <t>Fighting profile</t>
+  </si>
+  <si>
+    <t>CanMelee</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>CritType</t>
+  </si>
+  <si>
+    <t>Cursed Missiles</t>
+  </si>
+  <si>
+    <t>Shadowstalker Blades</t>
+  </si>
+  <si>
+    <t>Barbed Sickle</t>
+  </si>
+  <si>
+    <t>Heartshard Glaive</t>
+  </si>
+  <si>
+    <t>Mrt</t>
+  </si>
+  <si>
+    <t>Barbed Javelin</t>
+  </si>
+  <si>
+    <t>Heartseeker Bow</t>
+  </si>
+  <si>
+    <t>Scianlar</t>
+  </si>
+  <si>
+    <t>Paired Sciansá</t>
+  </si>
+  <si>
+    <t>Sciansá</t>
+  </si>
+  <si>
+    <t>Kruiplash</t>
+  </si>
+  <si>
+    <t>Kruiplash and Sacrificial Knife</t>
+  </si>
+  <si>
+    <t>Doomfire Crossbow</t>
+  </si>
+  <si>
+    <t>Cursed Scimitar</t>
+  </si>
+  <si>
+    <t>Dark Steed’s Vicious Bite</t>
+  </si>
+  <si>
+    <t>Torrent of Burning Blood</t>
+  </si>
+  <si>
+    <t>Avatar’s Sword</t>
+  </si>
+  <si>
+    <t>Barbed Whip and Gladiatrix’s Blade</t>
+  </si>
+  <si>
+    <t>Deathsword and Blade_x001F_of_x001F_Khaine</t>
+  </si>
+  <si>
+    <t>Deathsword and Blade of Khaine</t>
+  </si>
+  <si>
+    <t>Witch Aelves’ Sciansá</t>
+  </si>
+  <si>
+    <t>Blade of Khaine</t>
+  </si>
+  <si>
+    <t>Keldrisaíth</t>
+  </si>
+  <si>
+    <t>Bloodwrack Stare</t>
+  </si>
+  <si>
+    <t>Bloodwrack Spear and Whisperclaw</t>
+  </si>
+  <si>
+    <t>modelcount * 1/6</t>
+  </si>
+  <si>
+    <t>Shrinekeepers’ Goadstaves</t>
+  </si>
+  <si>
+    <t>Staff of Morai-Heg</t>
+  </si>
+  <si>
+    <t>Heartrender and Bladed Wings</t>
+  </si>
+  <si>
+    <t>Gaze of the Shadow Queen</t>
+  </si>
+  <si>
+    <t>Heartrender</t>
+  </si>
+  <si>
+    <t>Crown of Serpents</t>
+  </si>
+  <si>
+    <t>Envenomed Tail</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>Charge +1 Rend</t>
+  </si>
+  <si>
+    <t>No move crit 5</t>
+  </si>
+  <si>
+    <t>Save 6= 1 mortal</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1 to hit for melee</t>
+  </si>
+  <si>
+    <t>Rend +1 vs inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active 1 </t>
+  </si>
+  <si>
+    <t>Active 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d6 kills hero </t>
+  </si>
+  <si>
+    <t>3+ give +1 Atk</t>
+  </si>
+  <si>
+    <t>2+ give +1 Rend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 save +1 chant in 9</t>
+  </si>
+  <si>
+    <t>d3 2+ mortal</t>
+  </si>
+  <si>
+    <t>d3 2+ mortal on Charge</t>
+  </si>
+  <si>
+    <t>3+ give ward 5</t>
+  </si>
+  <si>
+    <t>Fight forward</t>
+  </si>
+  <si>
+    <t>Reroll charges for melusai in 12</t>
+  </si>
+  <si>
+    <t>max 3 dmg per turn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 atck if model slain by d3 2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 casting</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>MortalDamage vs Save</t>
+  </si>
+  <si>
+    <t>Price per damage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -300,7 +655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -636,7 +991,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -646,10 +1001,23 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -658,8 +1026,148 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -671,15 +1179,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -719,16 +1221,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,30 +1312,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,15 +1340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -798,8 +1348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -809,25 +1357,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -836,22 +1372,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1165,16 +1733,4051 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCC0FA9-DB8D-4D20-B8F5-A9E5DE36E402}">
-  <dimension ref="A1:V20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9C8B7-B2F0-49EE-84B9-5E516AC40781}">
+  <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q74:Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="17" width="27" customWidth="1"/>
+    <col min="18" max="19" width="21" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" s="101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="94">
+        <v>110</v>
+      </c>
+      <c r="B2" s="95">
+        <v>9</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="95">
+        <v>6</v>
+      </c>
+      <c r="E2" s="95">
+        <v>1</v>
+      </c>
+      <c r="F2" s="95">
+        <v>1</v>
+      </c>
+      <c r="G2" s="95">
+        <v>5</v>
+      </c>
+      <c r="H2" s="95">
+        <v>6</v>
+      </c>
+      <c r="I2" s="95">
+        <f t="shared" ref="I2:I23" si="0">B2*E2</f>
+        <v>9</v>
+      </c>
+      <c r="J2" s="95">
+        <f t="shared" ref="J2:J23" si="1">(I2/((G2-1)/6))/((H2-1)/6)</f>
+        <v>16.2</v>
+      </c>
+      <c r="K2" s="95">
+        <v>0</v>
+      </c>
+      <c r="L2" s="95">
+        <v>0</v>
+      </c>
+      <c r="M2" s="95">
+        <v>0</v>
+      </c>
+      <c r="N2" s="95">
+        <v>1</v>
+      </c>
+      <c r="O2" s="95"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="86">
+        <v>100</v>
+      </c>
+      <c r="B3" s="84">
+        <v>5</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="84">
+        <v>12</v>
+      </c>
+      <c r="E3" s="84">
+        <v>2</v>
+      </c>
+      <c r="F3" s="84">
+        <v>1</v>
+      </c>
+      <c r="G3" s="84">
+        <v>5</v>
+      </c>
+      <c r="H3" s="84">
+        <v>6</v>
+      </c>
+      <c r="I3" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J3" s="84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K3" s="84">
+        <v>0</v>
+      </c>
+      <c r="L3" s="84">
+        <v>0</v>
+      </c>
+      <c r="M3" s="84">
+        <v>0</v>
+      </c>
+      <c r="N3" s="84">
+        <v>1</v>
+      </c>
+      <c r="O3" s="84"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="86">
+        <v>110</v>
+      </c>
+      <c r="B4" s="84">
+        <v>5</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="84">
+        <v>12</v>
+      </c>
+      <c r="E4" s="84">
+        <v>2</v>
+      </c>
+      <c r="F4" s="84">
+        <v>1</v>
+      </c>
+      <c r="G4" s="84">
+        <v>5</v>
+      </c>
+      <c r="H4" s="84">
+        <v>6</v>
+      </c>
+      <c r="I4" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J4" s="84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K4" s="84">
+        <v>0</v>
+      </c>
+      <c r="L4" s="84">
+        <v>0</v>
+      </c>
+      <c r="M4" s="84">
+        <v>0</v>
+      </c>
+      <c r="N4" s="84">
+        <v>1</v>
+      </c>
+      <c r="O4" s="84"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="86">
+        <v>140</v>
+      </c>
+      <c r="B5" s="84">
+        <v>5</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="84">
+        <v>8</v>
+      </c>
+      <c r="E5" s="84">
+        <v>2</v>
+      </c>
+      <c r="F5" s="84">
+        <v>1</v>
+      </c>
+      <c r="G5" s="84">
+        <v>5</v>
+      </c>
+      <c r="H5" s="84">
+        <v>6</v>
+      </c>
+      <c r="I5" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K5" s="84">
+        <v>0</v>
+      </c>
+      <c r="L5" s="84">
+        <v>0</v>
+      </c>
+      <c r="M5" s="84">
+        <v>0</v>
+      </c>
+      <c r="N5" s="84">
+        <v>1</v>
+      </c>
+      <c r="O5" s="84"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="86">
+        <v>140</v>
+      </c>
+      <c r="B6" s="84">
+        <v>5</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="84">
+        <v>8</v>
+      </c>
+      <c r="E6" s="84">
+        <v>2</v>
+      </c>
+      <c r="F6" s="84">
+        <v>1</v>
+      </c>
+      <c r="G6" s="84">
+        <v>5</v>
+      </c>
+      <c r="H6" s="84">
+        <v>6</v>
+      </c>
+      <c r="I6" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K6" s="84">
+        <v>0</v>
+      </c>
+      <c r="L6" s="84">
+        <v>0</v>
+      </c>
+      <c r="M6" s="84">
+        <v>0</v>
+      </c>
+      <c r="N6" s="84">
+        <v>1</v>
+      </c>
+      <c r="O6" s="84"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
+        <v>110</v>
+      </c>
+      <c r="B7" s="84">
+        <v>10</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="84">
+        <v>6</v>
+      </c>
+      <c r="E7" s="84">
+        <v>1</v>
+      </c>
+      <c r="F7" s="84">
+        <v>1</v>
+      </c>
+      <c r="G7" s="84">
+        <v>6</v>
+      </c>
+      <c r="H7" s="84">
+        <v>6</v>
+      </c>
+      <c r="I7" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="84">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K7" s="84">
+        <v>0</v>
+      </c>
+      <c r="L7" s="84">
+        <v>0</v>
+      </c>
+      <c r="M7" s="84">
+        <v>0</v>
+      </c>
+      <c r="N7" s="84">
+        <v>1</v>
+      </c>
+      <c r="O7" s="84"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="86">
+        <v>110</v>
+      </c>
+      <c r="B8" s="84">
+        <v>10</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="84">
+        <v>6</v>
+      </c>
+      <c r="E8" s="84">
+        <v>1</v>
+      </c>
+      <c r="F8" s="84">
+        <v>1</v>
+      </c>
+      <c r="G8" s="84">
+        <v>5</v>
+      </c>
+      <c r="H8" s="84">
+        <v>6</v>
+      </c>
+      <c r="I8" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K8" s="84">
+        <v>0</v>
+      </c>
+      <c r="L8" s="84">
+        <v>0</v>
+      </c>
+      <c r="M8" s="84">
+        <v>0</v>
+      </c>
+      <c r="N8" s="84">
+        <v>1</v>
+      </c>
+      <c r="O8" s="84"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="86">
+        <v>110</v>
+      </c>
+      <c r="B9" s="84">
+        <v>10</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="84">
+        <v>6</v>
+      </c>
+      <c r="E9" s="84">
+        <v>1</v>
+      </c>
+      <c r="F9" s="84">
+        <v>1</v>
+      </c>
+      <c r="G9" s="84">
+        <v>5</v>
+      </c>
+      <c r="H9" s="84">
+        <v>6</v>
+      </c>
+      <c r="I9" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K9" s="84">
+        <v>0</v>
+      </c>
+      <c r="L9" s="84">
+        <v>0</v>
+      </c>
+      <c r="M9" s="84">
+        <v>0</v>
+      </c>
+      <c r="N9" s="84">
+        <v>1</v>
+      </c>
+      <c r="O9" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="86">
+        <v>130</v>
+      </c>
+      <c r="B10" s="84">
+        <v>10</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="84">
+        <v>6</v>
+      </c>
+      <c r="E10" s="84">
+        <v>1</v>
+      </c>
+      <c r="F10" s="84">
+        <v>1</v>
+      </c>
+      <c r="G10" s="84">
+        <v>6</v>
+      </c>
+      <c r="H10" s="84">
+        <v>6</v>
+      </c>
+      <c r="I10" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="84">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K10" s="84">
+        <v>0</v>
+      </c>
+      <c r="L10" s="84">
+        <v>0</v>
+      </c>
+      <c r="M10" s="84">
+        <v>0</v>
+      </c>
+      <c r="N10" s="84">
+        <v>1</v>
+      </c>
+      <c r="O10" s="84"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="86">
+        <v>150</v>
+      </c>
+      <c r="B11" s="84">
+        <v>5</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="84">
+        <v>14</v>
+      </c>
+      <c r="E11" s="84">
+        <v>3</v>
+      </c>
+      <c r="F11" s="84">
+        <v>1</v>
+      </c>
+      <c r="G11" s="84">
+        <v>5</v>
+      </c>
+      <c r="H11" s="84">
+        <v>6</v>
+      </c>
+      <c r="I11" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J11" s="84">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K11" s="84">
+        <v>0</v>
+      </c>
+      <c r="L11" s="84">
+        <v>1</v>
+      </c>
+      <c r="M11" s="84">
+        <v>0</v>
+      </c>
+      <c r="N11" s="84">
+        <v>1</v>
+      </c>
+      <c r="O11" s="84"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="86">
+        <v>190</v>
+      </c>
+      <c r="B12" s="84">
+        <v>1</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="84">
+        <v>6</v>
+      </c>
+      <c r="E12" s="84">
+        <v>7</v>
+      </c>
+      <c r="F12" s="84">
+        <v>2</v>
+      </c>
+      <c r="G12" s="84">
+        <v>3</v>
+      </c>
+      <c r="H12" s="84">
+        <v>6</v>
+      </c>
+      <c r="I12" s="84">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J12" s="84">
+        <f t="shared" si="1"/>
+        <v>25.2</v>
+      </c>
+      <c r="K12" s="84">
+        <v>0</v>
+      </c>
+      <c r="L12" s="84">
+        <v>1</v>
+      </c>
+      <c r="M12" s="84">
+        <v>0</v>
+      </c>
+      <c r="N12" s="84">
+        <v>0</v>
+      </c>
+      <c r="O12" s="84"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="R12" s="99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>130</v>
+      </c>
+      <c r="B13" s="84">
+        <v>1</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="84">
+        <v>6</v>
+      </c>
+      <c r="E13" s="84">
+        <v>5</v>
+      </c>
+      <c r="F13" s="84">
+        <v>2</v>
+      </c>
+      <c r="G13" s="84">
+        <v>5</v>
+      </c>
+      <c r="H13" s="84">
+        <v>6</v>
+      </c>
+      <c r="I13" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="84">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="84">
+        <v>1</v>
+      </c>
+      <c r="L13" s="84">
+        <v>0</v>
+      </c>
+      <c r="M13" s="84">
+        <v>0</v>
+      </c>
+      <c r="N13" s="84">
+        <v>0</v>
+      </c>
+      <c r="O13" s="84"/>
+      <c r="P13" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="R13" s="99">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="86">
+        <v>150</v>
+      </c>
+      <c r="B14" s="84">
+        <v>1</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="84">
+        <v>6</v>
+      </c>
+      <c r="E14" s="84">
+        <v>5</v>
+      </c>
+      <c r="F14" s="84">
+        <v>2</v>
+      </c>
+      <c r="G14" s="84">
+        <v>5</v>
+      </c>
+      <c r="H14" s="84">
+        <v>6</v>
+      </c>
+      <c r="I14" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="84">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K14" s="84">
+        <v>1</v>
+      </c>
+      <c r="L14" s="84">
+        <v>0</v>
+      </c>
+      <c r="M14" s="84">
+        <v>1</v>
+      </c>
+      <c r="N14" s="84">
+        <v>0</v>
+      </c>
+      <c r="O14" s="84"/>
+      <c r="P14" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="86">
+        <v>350</v>
+      </c>
+      <c r="B15" s="84">
+        <v>1</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="84">
+        <v>6</v>
+      </c>
+      <c r="E15" s="84">
+        <v>12</v>
+      </c>
+      <c r="F15" s="84">
+        <v>5</v>
+      </c>
+      <c r="G15" s="84">
+        <v>4</v>
+      </c>
+      <c r="H15" s="84">
+        <v>6</v>
+      </c>
+      <c r="I15" s="84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J15" s="84">
+        <f t="shared" si="1"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K15" s="84">
+        <v>1</v>
+      </c>
+      <c r="L15" s="84">
+        <v>0</v>
+      </c>
+      <c r="M15" s="84">
+        <v>1</v>
+      </c>
+      <c r="N15" s="84">
+        <v>0</v>
+      </c>
+      <c r="O15" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="R15" s="99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
+        <v>140</v>
+      </c>
+      <c r="B16" s="84">
+        <v>1</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="84">
+        <v>6</v>
+      </c>
+      <c r="E16" s="84">
+        <v>5</v>
+      </c>
+      <c r="F16" s="84">
+        <v>2</v>
+      </c>
+      <c r="G16" s="84">
+        <v>5</v>
+      </c>
+      <c r="H16" s="84">
+        <v>6</v>
+      </c>
+      <c r="I16" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J16" s="84">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K16" s="84">
+        <v>1</v>
+      </c>
+      <c r="L16" s="84">
+        <v>0</v>
+      </c>
+      <c r="M16" s="84">
+        <v>1</v>
+      </c>
+      <c r="N16" s="84">
+        <v>0</v>
+      </c>
+      <c r="O16" s="84"/>
+      <c r="P16" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
+        <v>350</v>
+      </c>
+      <c r="B17" s="84">
+        <v>1</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="84">
+        <v>6</v>
+      </c>
+      <c r="E17" s="84">
+        <v>12</v>
+      </c>
+      <c r="F17" s="84">
+        <v>5</v>
+      </c>
+      <c r="G17" s="84">
+        <v>4</v>
+      </c>
+      <c r="H17" s="84">
+        <v>6</v>
+      </c>
+      <c r="I17" s="84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J17" s="84">
+        <f t="shared" si="1"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K17" s="84">
+        <v>1</v>
+      </c>
+      <c r="L17" s="84">
+        <v>0</v>
+      </c>
+      <c r="M17" s="84">
+        <v>1</v>
+      </c>
+      <c r="N17" s="84">
+        <v>0</v>
+      </c>
+      <c r="O17" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
+        <v>160</v>
+      </c>
+      <c r="B18" s="84">
+        <v>1</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="84">
+        <v>8</v>
+      </c>
+      <c r="E18" s="84">
+        <v>6</v>
+      </c>
+      <c r="F18" s="84">
+        <v>2</v>
+      </c>
+      <c r="G18" s="84">
+        <v>5</v>
+      </c>
+      <c r="H18" s="84">
+        <v>6</v>
+      </c>
+      <c r="I18" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J18" s="84">
+        <f t="shared" si="1"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="K18" s="84">
+        <v>1</v>
+      </c>
+      <c r="L18" s="84">
+        <v>0</v>
+      </c>
+      <c r="M18" s="84">
+        <v>0</v>
+      </c>
+      <c r="N18" s="84">
+        <v>0</v>
+      </c>
+      <c r="O18" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="P18" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="86">
+        <v>180</v>
+      </c>
+      <c r="B19" s="84">
+        <v>1</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="84">
+        <v>8</v>
+      </c>
+      <c r="E19" s="84">
+        <v>6</v>
+      </c>
+      <c r="F19" s="84">
+        <v>2</v>
+      </c>
+      <c r="G19" s="84">
+        <v>5</v>
+      </c>
+      <c r="H19" s="84">
+        <v>6</v>
+      </c>
+      <c r="I19" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J19" s="84">
+        <f t="shared" si="1"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="K19" s="84">
+        <v>1</v>
+      </c>
+      <c r="L19" s="84">
+        <v>1</v>
+      </c>
+      <c r="M19" s="84">
+        <v>0</v>
+      </c>
+      <c r="N19" s="84">
+        <v>0</v>
+      </c>
+      <c r="O19" s="84"/>
+      <c r="P19" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
+        <v>240</v>
+      </c>
+      <c r="B20" s="84">
+        <v>1</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="84">
+        <v>6</v>
+      </c>
+      <c r="E20" s="84">
+        <v>12</v>
+      </c>
+      <c r="F20" s="84">
+        <v>5</v>
+      </c>
+      <c r="G20" s="84">
+        <v>4</v>
+      </c>
+      <c r="H20" s="84">
+        <v>6</v>
+      </c>
+      <c r="I20" s="84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J20" s="84">
+        <f t="shared" si="1"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K20" s="84">
+        <v>1</v>
+      </c>
+      <c r="L20" s="84">
+        <v>1</v>
+      </c>
+      <c r="M20" s="84">
+        <v>0</v>
+      </c>
+      <c r="N20" s="84">
+        <v>0</v>
+      </c>
+      <c r="O20" s="84"/>
+      <c r="P20" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="R20" s="99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="86">
+        <v>190</v>
+      </c>
+      <c r="B21" s="84">
+        <v>1</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="84">
+        <v>12</v>
+      </c>
+      <c r="E21" s="84">
+        <v>6</v>
+      </c>
+      <c r="F21" s="84">
+        <v>2</v>
+      </c>
+      <c r="G21" s="84">
+        <v>5</v>
+      </c>
+      <c r="H21" s="84">
+        <v>6</v>
+      </c>
+      <c r="I21" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="84">
+        <f t="shared" si="1"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="K21" s="84">
+        <v>1</v>
+      </c>
+      <c r="L21" s="84">
+        <v>0</v>
+      </c>
+      <c r="M21" s="84">
+        <v>1</v>
+      </c>
+      <c r="N21" s="84">
+        <v>0</v>
+      </c>
+      <c r="O21" s="84"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="99">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="88">
+        <v>760</v>
+      </c>
+      <c r="B22" s="85">
+        <v>1</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="84">
+        <v>6</v>
+      </c>
+      <c r="E22" s="84">
+        <v>6</v>
+      </c>
+      <c r="F22" s="84">
+        <v>2</v>
+      </c>
+      <c r="G22" s="84">
+        <v>5</v>
+      </c>
+      <c r="H22" s="84">
+        <v>6</v>
+      </c>
+      <c r="I22" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="84">
+        <f t="shared" si="1"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="K22" s="84">
+        <v>1</v>
+      </c>
+      <c r="L22" s="84">
+        <v>3</v>
+      </c>
+      <c r="M22" s="84">
+        <v>0</v>
+      </c>
+      <c r="N22" s="84">
+        <v>0</v>
+      </c>
+      <c r="O22" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="89"/>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C24" s="94"/>
+      <c r="D24" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C25" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="84">
+        <v>0</v>
+      </c>
+      <c r="E25" s="84">
+        <v>7</v>
+      </c>
+      <c r="F25" s="84">
+        <v>7</v>
+      </c>
+      <c r="G25" s="84">
+        <v>4</v>
+      </c>
+      <c r="H25" s="84">
+        <v>6</v>
+      </c>
+      <c r="I25" s="87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C26" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="84">
+        <v>12</v>
+      </c>
+      <c r="E26" s="84">
+        <v>7</v>
+      </c>
+      <c r="F26" s="84">
+        <v>7</v>
+      </c>
+      <c r="G26" s="84">
+        <v>6</v>
+      </c>
+      <c r="H26" s="84">
+        <v>6</v>
+      </c>
+      <c r="I26" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6</v>
+      </c>
+      <c r="I27" s="90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="M30" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="N30" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="R31" s="45">
+        <v>3</v>
+      </c>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45">
+        <v>4</v>
+      </c>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45">
+        <v>5</v>
+      </c>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>110</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N33" si="2">(7-K32)/6+((7-G32-(7-K32))/6*(7-H32)/6)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f>$N32*((P$31+$I32)-1)/6*($F32*$B$32+$O32)*$J32</f>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:X33" si="3">$N32*((R$31+$I32)-1)/6*($F32*$B$32+$O32)*$J32</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>2.9629629629629628</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="3"/>
+        <v>3.7037037037037042</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f>$N33*((P$31+$I33)-1)/6*($F33*$B$32+$O33)*$J33</f>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="3"/>
+        <v>4.2222222222222223</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="3"/>
+        <v>5.2777777777777768</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>90</v>
+      </c>
+      <c r="N34">
+        <f>(7-K34)/6+((7-G34-(7-K34))/6*(7-H34)/6)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f>$N34*((P$31+$I34)-1)/6*($F34*$B$34+$O34)*$J34</f>
+        <v>1.5277777777777775</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:X34" si="4">$N34*((R$31+$I34)-1)/6*($F34*$B$34+$O34)*$J34</f>
+        <v>2.291666666666667</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="4"/>
+        <v>3.0555555555555549</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="4"/>
+        <v>3.8194444444444438</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="4"/>
+        <v>4.5833333333333339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>90</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N72" si="5">(7-K35)/6+((7-G35-(7-K35))/6*(7-H35)/6)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f>$N35*((P$31+$I35)-1)/6*($F35*$B$35+$O35)*$J35</f>
+        <v>1.5277777777777775</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35:X36" si="6">$N35*((R$31+$I35)-1)/6*($F35*$B$35+$O35)*$J35</f>
+        <v>2.291666666666667</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="6"/>
+        <v>3.0555555555555549</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="6"/>
+        <v>3.8194444444444438</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="6"/>
+        <v>4.5833333333333339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f>$N36*((P$31+$I36)-1)/6*($F36*$B$35+$O36)*$J36</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="6"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="6"/>
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>140</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37">
+        <f>((7-G37-(7-K37))/6*(7-H37)/6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f>((1/6)+$N37*((P$31+$I37)-1)/6)*($F37*$B$37+$O37)*$J37</f>
+        <v>5.5</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ref="R37:X37" si="7">((1/6)+$N37*((R$31+$I37)-1)/6)*($F37*$B$37+$O37)*$J37</f>
+        <v>6.4166666666666661</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="7"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="7"/>
+        <v>8.25</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="7"/>
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>140</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f>$N38*((P$31+$I38)-1)/6*($F38*$B$38+$O38)*$J38</f>
+        <v>2.2222222222222219</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38:X39" si="8">$N38*((R$31+$I38)-1)/6*($F38*$B$38+$O38)*$J38</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="8"/>
+        <v>4.4444444444444438</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555545</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f>$N39*((P$31+$I39)-1)/6*($F39*$B$38+$O39)*$J39</f>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="8"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="8"/>
+        <v>2.4444444444444442</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="8"/>
+        <v>3.0555555555555549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>110</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" t="s">
+        <v>172</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f>$N40*((P$31+$I40)-1)/6*($F40*$B$40+$O40)*$J40</f>
+        <v>2.1527777777777772</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ref="R40:X40" si="9">$N40*((R$31+$I40)-1)/6*($F40*$B$40+$O40)*$J40</f>
+        <v>4.3055555555555545</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="9"/>
+        <v>6.4583333333333339</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="9"/>
+        <v>8.6111111111111089</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="9"/>
+        <v>10.763888888888888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>110</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41" t="s">
+        <v>174</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f>$N41*((P$31+$I41)-1)/6*($F41*$B$41+$O41)*$J41</f>
+        <v>1.458333333333333</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41:X41" si="10">$N41*((R$31+$I41)-1)/6*($F41*$B$41+$O41)*$J41</f>
+        <v>2.9166666666666661</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="10"/>
+        <v>5.8333333333333321</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="10"/>
+        <v>7.2916666666666652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>110</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>177</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f>$N42*((P$31+$I42)-1)/6*($F42*$B$42+$O42)*$J42</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:X42" si="11">$N42*((R$31+$I42)-1)/6*($F42*$B$42+$O42)*$J42</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="11"/>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="11"/>
+        <v>5.8333333333333321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>130</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>177</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f>$N43*((P$31+$I43)-1)/6*($F43*$B$43+$O43)*$J43</f>
+        <v>1.7222222222222221</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ref="R43:X43" si="12">$N43*((R$31+$I43)-1)/6*($F43*$B$43+$O43)*$J43</f>
+        <v>3.4444444444444442</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="12"/>
+        <v>5.1666666666666661</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="12"/>
+        <v>6.8888888888888884</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="12"/>
+        <v>8.6111111111111089</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>150</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f>$N44*((P$31+$I44)-1)/6*($F44*$B$44+$O44)*$J44</f>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="R44">
+        <f t="shared" ref="R44:X46" si="13">$N44*((R$31+$I44)-1)/6*($F44*$B$44+$O44)*$J44</f>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="13"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="13"/>
+        <v>2.4444444444444442</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="13"/>
+        <v>3.0555555555555549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f>$N45*((P$31+$I45)-1)/6*($F45*$B$44+$O45)*$J45</f>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="13"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="13"/>
+        <v>2.4444444444444442</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="13"/>
+        <v>3.0555555555555549</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="13"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="5"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f>$N46*((P$31+$I46)-1)/6*($F46*$B$44+$O46)*$J46</f>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="13"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="13"/>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="13"/>
+        <v>1.6296296296296295</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="13"/>
+        <v>2.0370370370370372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>190</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f>$N47*((P$31+$I47)-1)/6*($F47*$B$47+$O47)*$J47</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47:X48" si="14">$N47*((R$31+$I47)-1)/6*($F47*$B$47+$O47)*$J47</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="14"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="14"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="14"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>7</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f>$N48*((P$31+$I48)-1)/6*($F48*$B$47+$O48)*$J48</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="14"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="14"/>
+        <v>5.5555555555555562</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="14"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="X48">
+        <f>V48</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>130</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>$N49*((P$31+$I49)-1)/6*($F49*$B$49+$O49)*$J49</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R49">
+        <f t="shared" ref="R49:X49" si="15">$N49*((R$31+$I49)-1)/6*($F49*$B$49+$O49)*$J49</f>
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="15"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="15"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>7</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>$N50*((P$31+$I50)-1)/6*($F50*$B$50+$O50)*$J50</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ref="R50:X50" si="16">$N50*((R$31+$I50)-1)/6*($F50*$B$50+$O50)*$J50</f>
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="16"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="16"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>350</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f>$N51*((P$31+$I51)-1)/6*($F51*$B$51+$O51)*$J51</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ref="R51:X54" si="17">$N51*((R$31+$I51)-1)/6*($F51*$B$51+$O51)*$J51</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="17"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="17"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="17"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f>$N52*((P$31+$I52)-1)/6*($F52*$B$51+$O52)*$J52</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="17"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="17"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>7</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>$N53*((P$31+$I53)-1)/6*($F53*$B$51+$O53)*$J53</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="17"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="17"/>
+        <v>5.5555555555555562</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="17"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="X53">
+        <f>V53</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>7</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>$N54*((P$31+$I54)-1)/6*($F54*$B$51+$O54)*$J54</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="17"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="17"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="17"/>
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>140</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55" t="s">
+        <v>142</v>
+      </c>
+      <c r="N55">
+        <f>((7-G55-(7-K55))/6*(7-H55)/6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f>((1/6)+$N55*((P$31+$I55)-1)/6)*($F55*$B$55+$O55)*$J55</f>
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <f t="shared" ref="R55:X55" si="18">((1/6)+$N55*((R$31+$I55)-1)/6)*($F55*$B$55+$O55)*$J55</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="18"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="18"/>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>350</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>7</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f>$N56*((P$31+$I56)-1)/6*($F56*$B$56+$O56)*$J56</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="R56">
+        <f t="shared" ref="R56:X59" si="19">$N56*((R$31+$I56)-1)/6*($F56*$B$56+$O56)*$J56</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="19"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="19"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="19"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+      <c r="L57" t="s">
+        <v>142</v>
+      </c>
+      <c r="N57">
+        <f>((7-G57-(7-K57))/6*(7-H57)/6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f>((1/6)+$N57*((P$31+$I57)-1)/6)*($F57*$B$56+$O57)*$J57</f>
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57:X57" si="20">(($J$57/6)+$N57*((R$31+$I57)-1)/6)*($F57*$B$56+$O57)*$J57</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="20"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="20"/>
+        <v>4.6666666666666661</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>$N58*((P$31+$I58)-1)/6*($F58*$B$56+$O58)*$J58</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="19"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="19"/>
+        <v>5.5555555555555562</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="19"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="X58">
+        <f>V58</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>7</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f>$N59*((P$31+$I59)-1)/6*($F59*$B$56+$O59)*$J59</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="19"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="19"/>
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>160</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>7</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f>$N60*((P$31+$I60)-1)/6*($F60*$B$60+$O60)*$J60</f>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ref="R60:X61" si="21">$N60*((R$31+$I60)-1)/6*($F60*$B$60+$O60)*$J60</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="21"/>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="21"/>
+        <v>1.4814814814814816</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="21"/>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f>$N61*((P$31+$I61)-1)/6*($F61*$B$60+$O61)*$J61</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="21"/>
+        <v>2.5</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="21"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="21"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>180</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>163</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>0.97222222222222232</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="e">
+        <f t="shared" ref="P62" si="22">$N62*((P$31+$I62)-1)/6*($F62*$B$32+O62)*$J62</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R62" t="e">
+        <f>$N62*((R$31+$I62)-1)/6*($F62*$B$32+P62)*$J62</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T62" t="e">
+        <f>$N62*((T$31+$I62)-1)/6*($F62*$B$32+R62)*$J62</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V62" t="e">
+        <f>$N62*((V$31+$I62)-1)/6*($F62*$B$32+T62)*$J62</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X62" t="e">
+        <f>$N62*((X$31+$I62)-1)/6*($F62*$B$32+V62)*$J62</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f>$N63*((P$31+$I63)-1)/6*($F63*$B$62+$O63)*$J63</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ref="R63:X63" si="23">$N63*((R$31+$I63)-1)/6*($F63*$B$62+$O63)*$J63</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="23"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="23"/>
+        <v>2.7777777777777772</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="23"/>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>240</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="J64" t="s">
+        <v>163</v>
+      </c>
+      <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>0.97222222222222232</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="e">
+        <f t="shared" ref="P64" si="24">$N64*((P$31+$I64)-1)/6*($F64*$B$32+O64)*$J64</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R64" t="e">
+        <f>$N64*((R$31+$I64)-1)/6*($F64*$B$32+P64)*$J64</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T64" t="e">
+        <f>$N64*((T$31+$I64)-1)/6*($F64*$B$32+R64)*$J64</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V64" t="e">
+        <f>$N64*((V$31+$I64)-1)/6*($F64*$B$32+T64)*$J64</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X64" t="e">
+        <f>$N64*((X$31+$I64)-1)/6*($F64*$B$32+V64)*$J64</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f>$N65*((P$31+$I65)-1)/6*($F65*$B$64+$O65)*$J65</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ref="R65:X66" si="25">$N65*((R$31+$I65)-1)/6*($F65*$B$64+$O65)*$J65</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="25"/>
+        <v>2.7777777777777772</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="25"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X65">
+        <f>V65</f>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f>$N66*((P$31+$I66)-1)/6*($F66*$B$64+$O66)*$J66</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="25"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="25"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>190</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f>$N67*((P$31+$I67)-1)/6*($F67*$B$67+$O67)*$J67</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:X67" si="26">$N67*((R$31+$I67)-1)/6*($F67*$B$67+$O67)*$J67</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="26"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="26"/>
+        <v>2.2222222222222219</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="26"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="47">
+        <v>760</v>
+      </c>
+      <c r="B68" s="43">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>7</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f>$N68*((P$31+$I68)-1)/6*($F68*$B$68+$O68)*$J68</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ref="R68:V68" si="27">$N68*((R$31+$I68)-1)/6*($F68*$B$68+$O68)*$J68</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="27"/>
+        <v>2.7777777777777772</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="27"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X68">
+        <f>V68</f>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>3.5</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="5"/>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f>$N69*((P$31+$I69)-1)/6*($F69*$B$69+$O69)*$J69</f>
+        <v>1.6203703703703707</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ref="R69:X72" si="28">$N69*((R$31+$I69)-1)/6*($F69*$B$69+$O69)*$J69</f>
+        <v>2.0254629629629632</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="28"/>
+        <v>2.4305555555555558</v>
+      </c>
+      <c r="V69">
+        <f>T69</f>
+        <v>2.4305555555555558</v>
+      </c>
+      <c r="X69">
+        <f>V69</f>
+        <v>2.4305555555555558</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>6</v>
+      </c>
+      <c r="L70" t="s">
+        <v>142</v>
+      </c>
+      <c r="N70">
+        <f>((7-G70-(7-K70))/6*(7-H70)/6)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f>((1/6)+$N70*((P$31+$I70)-1)/6)*($F70*$B$69+$O70)*$J70</f>
+        <v>8</v>
+      </c>
+      <c r="R70">
+        <f t="shared" ref="R70:V70" si="29">(($J$70/6)+$N70*((R$31+$I70)-1)/6)*($F70*$B$69+$O70)*$J70</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="29"/>
+        <v>18.666666666666664</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+      <c r="X70">
+        <f>V70</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f>$N71*((P$31+$I71)-1)/6*($F71*$B$69+$O71)*$J71</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="28"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="28"/>
+        <v>0.875</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="28"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="28"/>
+        <v>1.4583333333333335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>7</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f>$N72*((P$31+$I72)-1)/6*($F72*$B$69+$O72)*$J72</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="28"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="28"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="28"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="X72">
+        <f>V72</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="P30:X30"/>
+    <mergeCell ref="A28:Y29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCC0FA9-DB8D-4D20-B8F5-A9E5DE36E402}">
+  <dimension ref="A1:CO23"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" style="27" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
@@ -1187,577 +5790,1429 @@
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="15"/>
+      <c r="BW1" s="15"/>
+      <c r="BX1" s="15"/>
+      <c r="BY1" s="15"/>
+      <c r="BZ1" s="15"/>
+      <c r="CA1" s="15"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
+      <c r="CJ1" s="15"/>
+      <c r="CK1" s="15"/>
+      <c r="CL1" s="15"/>
+      <c r="CM1" s="15"/>
+      <c r="CN1" s="15"/>
+      <c r="CO1" s="15"/>
+    </row>
+    <row r="2" spans="1:93" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="20">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+    </row>
+    <row r="3" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="53">
+        <v>10</v>
+      </c>
+      <c r="C3" s="49">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="49">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6</v>
+      </c>
+      <c r="G3" s="49">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+    </row>
+    <row r="4" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="14">
+        <v>6</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="15"/>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="15"/>
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="15"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="15"/>
+      <c r="CH4" s="15"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="15"/>
+      <c r="CO4" s="15"/>
+    </row>
+    <row r="5" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="53">
+        <v>10</v>
+      </c>
+      <c r="C5" s="49">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>6</v>
+      </c>
+      <c r="G5" s="49">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
+      <c r="BR5" s="15"/>
+      <c r="BS5" s="15"/>
+      <c r="BT5" s="15"/>
+      <c r="BU5" s="15"/>
+      <c r="BV5" s="15"/>
+      <c r="BW5" s="15"/>
+      <c r="BX5" s="15"/>
+      <c r="BY5" s="15"/>
+      <c r="BZ5" s="15"/>
+      <c r="CA5" s="15"/>
+      <c r="CB5" s="15"/>
+      <c r="CC5" s="15"/>
+      <c r="CD5" s="15"/>
+      <c r="CE5" s="15"/>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="15"/>
+      <c r="CH5" s="15"/>
+      <c r="CI5" s="15"/>
+      <c r="CJ5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="15"/>
+      <c r="CM5" s="15"/>
+      <c r="CN5" s="15"/>
+      <c r="CO5" s="15"/>
+    </row>
+    <row r="6" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="14">
+        <v>6</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
+      <c r="BP6" s="15"/>
+      <c r="BQ6" s="15"/>
+      <c r="BR6" s="15"/>
+      <c r="BS6" s="15"/>
+      <c r="BT6" s="15"/>
+      <c r="BU6" s="15"/>
+      <c r="BV6" s="15"/>
+      <c r="BW6" s="15"/>
+      <c r="BX6" s="15"/>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="15"/>
+      <c r="CC6" s="15"/>
+      <c r="CD6" s="15"/>
+      <c r="CE6" s="15"/>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="15"/>
+      <c r="CH6" s="15"/>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="15"/>
+      <c r="CO6" s="15"/>
+    </row>
+    <row r="7" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="53">
+        <v>5</v>
+      </c>
+      <c r="C7" s="49">
+        <v>15</v>
+      </c>
+      <c r="D7" s="49">
+        <v>10</v>
+      </c>
+      <c r="E7" s="49">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>8</v>
+      </c>
+      <c r="G7" s="49">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="15"/>
+      <c r="BS7" s="15"/>
+      <c r="BT7" s="15"/>
+      <c r="BU7" s="15"/>
+      <c r="BV7" s="15"/>
+      <c r="BW7" s="15"/>
+      <c r="BX7" s="15"/>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="15"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15"/>
+      <c r="CN7" s="15"/>
+      <c r="CO7" s="15"/>
+    </row>
+    <row r="8" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="14">
+        <v>8</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
+      <c r="BP8" s="15"/>
+      <c r="BQ8" s="15"/>
+      <c r="BR8" s="15"/>
+      <c r="BS8" s="15"/>
+      <c r="BT8" s="15"/>
+      <c r="BU8" s="15"/>
+      <c r="BV8" s="15"/>
+      <c r="BW8" s="15"/>
+      <c r="BX8" s="15"/>
+      <c r="BY8" s="15"/>
+      <c r="BZ8" s="15"/>
+      <c r="CA8" s="15"/>
+      <c r="CB8" s="15"/>
+      <c r="CC8" s="15"/>
+      <c r="CD8" s="15"/>
+      <c r="CE8" s="15"/>
+      <c r="CF8" s="15"/>
+      <c r="CG8" s="15"/>
+      <c r="CH8" s="15"/>
+      <c r="CI8" s="15"/>
+      <c r="CJ8" s="15"/>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="15"/>
+      <c r="CM8" s="15"/>
+      <c r="CN8" s="15"/>
+      <c r="CO8" s="15"/>
+    </row>
+    <row r="9" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="53">
+        <v>5</v>
+      </c>
+      <c r="C9" s="49">
+        <v>15</v>
+      </c>
+      <c r="D9" s="49">
+        <v>10</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>12</v>
+      </c>
+      <c r="G9" s="49">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="15"/>
+      <c r="BS9" s="15"/>
+      <c r="BT9" s="15"/>
+      <c r="BU9" s="15"/>
+      <c r="BV9" s="15"/>
+      <c r="BW9" s="15"/>
+      <c r="BX9" s="15"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15"/>
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="15"/>
+      <c r="CC9" s="15"/>
+      <c r="CD9" s="15"/>
+      <c r="CE9" s="15"/>
+      <c r="CF9" s="15"/>
+      <c r="CG9" s="15"/>
+      <c r="CH9" s="15"/>
+      <c r="CI9" s="15"/>
+      <c r="CJ9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
+    </row>
+    <row r="10" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="14">
+        <v>12</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="15"/>
+      <c r="BS10" s="15"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="15"/>
+      <c r="BV10" s="15"/>
+      <c r="BW10" s="15"/>
+      <c r="BX10" s="15"/>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="15"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="15"/>
+      <c r="CC10" s="15"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="15"/>
+      <c r="CF10" s="15"/>
+      <c r="CG10" s="15"/>
+      <c r="CH10" s="15"/>
+      <c r="CI10" s="15"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="15"/>
+    </row>
+    <row r="11" spans="1:93" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="21">
+        <v>5</v>
+      </c>
+      <c r="C11" s="17">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>14</v>
+      </c>
+      <c r="G11" s="16">
+        <v>3</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="15"/>
+      <c r="BS11" s="15"/>
+      <c r="BT11" s="15"/>
+      <c r="BU11" s="15"/>
+      <c r="BV11" s="15"/>
+      <c r="BW11" s="15"/>
+      <c r="BX11" s="15"/>
+      <c r="BY11" s="15"/>
+      <c r="BZ11" s="15"/>
+      <c r="CA11" s="15"/>
+      <c r="CB11" s="15"/>
+      <c r="CC11" s="15"/>
+      <c r="CD11" s="15"/>
+      <c r="CE11" s="15"/>
+      <c r="CF11" s="15"/>
+      <c r="CG11" s="15"/>
+      <c r="CH11" s="15"/>
+      <c r="CI11" s="15"/>
+      <c r="CJ11" s="15"/>
+      <c r="CK11" s="15"/>
+      <c r="CL11" s="15"/>
+      <c r="CM11" s="15"/>
+      <c r="CN11" s="15"/>
+      <c r="CO11" s="15"/>
+    </row>
+    <row r="12" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>3</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="L12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="15"/>
+      <c r="BO12" s="15"/>
+      <c r="BP12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="15"/>
+      <c r="BS12" s="15"/>
+      <c r="BT12" s="15"/>
+      <c r="BU12" s="15"/>
+      <c r="BV12" s="15"/>
+      <c r="BW12" s="15"/>
+      <c r="BX12" s="15"/>
+      <c r="BY12" s="15"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="15"/>
+      <c r="CC12" s="15"/>
+      <c r="CD12" s="15"/>
+      <c r="CE12" s="15"/>
+      <c r="CF12" s="15"/>
+      <c r="CG12" s="15"/>
+      <c r="CH12" s="15"/>
+      <c r="CI12" s="15"/>
+      <c r="CJ12" s="15"/>
+      <c r="CK12" s="15"/>
+      <c r="CL12" s="15"/>
+      <c r="CM12" s="15"/>
+      <c r="CN12" s="15"/>
+      <c r="CO12" s="15"/>
+    </row>
+    <row r="13" spans="1:93" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="64">
+        <v>1</v>
+      </c>
+      <c r="C13" s="61">
+        <v>50</v>
+      </c>
+      <c r="D13" s="61">
+        <v>25</v>
+      </c>
+      <c r="E13" s="61">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="22">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>6</v>
-      </c>
-      <c r="G2" s="10">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-    </row>
-    <row r="3" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="23">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" spans="1:22" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="16">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-    </row>
-    <row r="5" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="23">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-    </row>
-    <row r="6" spans="1:22" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="16">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-    </row>
-    <row r="7" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="23">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-    </row>
-    <row r="8" spans="1:22" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="16">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-    </row>
-    <row r="9" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="23">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-    </row>
-    <row r="10" spans="1:22" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="16">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="1:22" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="25">
-        <v>5</v>
-      </c>
-      <c r="C11" s="19">
-        <v>15</v>
-      </c>
-      <c r="D11" s="18">
-        <v>10</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18">
-        <v>14</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="F13" s="61">
+        <v>6</v>
+      </c>
+      <c r="G13" s="64">
         <v>3</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-    </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="15">
-        <v>3</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="H13" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="J13" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-    </row>
-    <row r="13" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="43">
-        <v>1</v>
-      </c>
-      <c r="C13" s="40">
-        <v>50</v>
-      </c>
-      <c r="D13" s="40">
-        <v>25</v>
-      </c>
-      <c r="E13" s="40">
-        <v>5</v>
-      </c>
-      <c r="F13" s="40">
-        <v>6</v>
-      </c>
-      <c r="G13" s="43">
-        <v>3</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="54" t="s">
+    </row>
+    <row r="14" spans="1:93" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="1:93" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="80"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="57"/>
+    </row>
+    <row r="16" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
         <v>63</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:22" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
-        <v>64</v>
       </c>
       <c r="B16" s="58">
         <v>1</v>
@@ -1778,133 +7233,577 @@
         <v>2</v>
       </c>
       <c r="H16" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="58" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="15"/>
+      <c r="BO16" s="15"/>
+      <c r="BP16" s="15"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="15"/>
+      <c r="BS16" s="15"/>
+      <c r="BT16" s="15"/>
+      <c r="BU16" s="15"/>
+      <c r="BV16" s="15"/>
+      <c r="BW16" s="15"/>
+      <c r="BX16" s="15"/>
+      <c r="BY16" s="15"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="15"/>
+      <c r="CC16" s="15"/>
+      <c r="CD16" s="15"/>
+      <c r="CE16" s="15"/>
+      <c r="CF16" s="15"/>
+      <c r="CG16" s="15"/>
+      <c r="CH16" s="15"/>
+      <c r="CI16" s="15"/>
+      <c r="CJ16" s="15"/>
+      <c r="CK16" s="15"/>
+      <c r="CL16" s="15"/>
+      <c r="CM16" s="15"/>
+      <c r="CN16" s="15"/>
+      <c r="CO16" s="15"/>
+    </row>
+    <row r="17" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="77"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="15"/>
+      <c r="BO17" s="15"/>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="15"/>
+      <c r="BS17" s="15"/>
+      <c r="BT17" s="15"/>
+      <c r="BU17" s="15"/>
+      <c r="BV17" s="15"/>
+      <c r="BW17" s="15"/>
+      <c r="BX17" s="15"/>
+      <c r="BY17" s="15"/>
+      <c r="BZ17" s="15"/>
+      <c r="CA17" s="15"/>
+      <c r="CB17" s="15"/>
+      <c r="CC17" s="15"/>
+      <c r="CD17" s="15"/>
+      <c r="CE17" s="15"/>
+      <c r="CF17" s="15"/>
+      <c r="CG17" s="15"/>
+      <c r="CH17" s="15"/>
+      <c r="CI17" s="15"/>
+      <c r="CJ17" s="15"/>
+      <c r="CK17" s="15"/>
+      <c r="CL17" s="15"/>
+      <c r="CM17" s="15"/>
+      <c r="CN17" s="15"/>
+      <c r="CO17" s="15"/>
+    </row>
+    <row r="18" spans="1:93" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>60</v>
+      </c>
+      <c r="D18" s="9">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="35">
+        <v>6</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
-        <v>60</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="15"/>
+      <c r="BO18" s="15"/>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="15"/>
+      <c r="BS18" s="15"/>
+      <c r="BT18" s="15"/>
+      <c r="BU18" s="15"/>
+      <c r="BV18" s="15"/>
+      <c r="BW18" s="15"/>
+      <c r="BX18" s="15"/>
+      <c r="BY18" s="15"/>
+      <c r="BZ18" s="15"/>
+      <c r="CA18" s="15"/>
+      <c r="CB18" s="15"/>
+      <c r="CC18" s="15"/>
+      <c r="CD18" s="15"/>
+      <c r="CE18" s="15"/>
+      <c r="CF18" s="15"/>
+      <c r="CG18" s="15"/>
+      <c r="CH18" s="15"/>
+      <c r="CI18" s="15"/>
+      <c r="CJ18" s="15"/>
+      <c r="CK18" s="15"/>
+      <c r="CL18" s="15"/>
+      <c r="CM18" s="15"/>
+      <c r="CN18" s="15"/>
+      <c r="CO18" s="15"/>
+    </row>
+    <row r="19" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
         <v>40</v>
       </c>
-      <c r="E18" s="11">
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10">
         <v>2</v>
       </c>
-      <c r="F18" s="68">
-        <v>6</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="F19" s="36">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="15"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="15"/>
+      <c r="BU19" s="15"/>
+      <c r="BV19" s="15"/>
+      <c r="BW19" s="15"/>
+      <c r="BX19" s="15"/>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="15"/>
+      <c r="CA19" s="15"/>
+      <c r="CB19" s="15"/>
+      <c r="CC19" s="15"/>
+      <c r="CD19" s="15"/>
+      <c r="CE19" s="15"/>
+      <c r="CF19" s="15"/>
+      <c r="CG19" s="15"/>
+      <c r="CH19" s="15"/>
+      <c r="CI19" s="15"/>
+      <c r="CJ19" s="15"/>
+      <c r="CK19" s="15"/>
+      <c r="CL19" s="15"/>
+      <c r="CM19" s="15"/>
+      <c r="CN19" s="15"/>
+      <c r="CO19" s="15"/>
+    </row>
+    <row r="20" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11">
+        <v>25</v>
+      </c>
+      <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="H18" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="F20" s="39">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="15"/>
+      <c r="BS20" s="15"/>
+      <c r="BT20" s="15"/>
+      <c r="BU20" s="15"/>
+      <c r="BV20" s="15"/>
+      <c r="BW20" s="15"/>
+      <c r="BX20" s="15"/>
+      <c r="BY20" s="15"/>
+      <c r="BZ20" s="15"/>
+      <c r="CA20" s="15"/>
+      <c r="CB20" s="15"/>
+      <c r="CC20" s="15"/>
+      <c r="CD20" s="15"/>
+      <c r="CE20" s="15"/>
+      <c r="CF20" s="15"/>
+      <c r="CG20" s="15"/>
+      <c r="CH20" s="15"/>
+      <c r="CI20" s="15"/>
+      <c r="CJ20" s="15"/>
+      <c r="CK20" s="15"/>
+      <c r="CL20" s="15"/>
+      <c r="CM20" s="15"/>
+      <c r="CN20" s="15"/>
+      <c r="CO20" s="15"/>
+    </row>
+    <row r="21" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="41">
+        <v>1</v>
+      </c>
+      <c r="C21" s="41">
         <v>40</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D21" s="41">
         <v>10</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E21" s="41">
         <v>2</v>
       </c>
-      <c r="F19" s="69">
-        <v>6</v>
-      </c>
-      <c r="G19" s="12">
-        <v>3</v>
-      </c>
-      <c r="I19" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="13">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13">
-        <v>50</v>
-      </c>
-      <c r="D20" s="13">
-        <v>25</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="F21" s="42">
+        <v>6</v>
+      </c>
+      <c r="G21" s="41">
         <v>2</v>
       </c>
-      <c r="F20" s="72">
-        <v>6</v>
-      </c>
-      <c r="G20" s="13">
-        <v>3</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="J21" t="s">
         <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1914,6 +7813,9 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="L16:L17"/>
@@ -1929,25 +7831,17 @@
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
+    <mergeCell ref="H13:H15"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -1955,12 +7849,17 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F1838-8BF0-49CA-8194-D838573B6446}">
   <dimension ref="A1:H1"/>
   <sheetViews>

--- a/Статы юнитов/Ангельский союз.xlsx
+++ b/Статы юнитов/Ангельский союз.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Git\DocumentationRepo\Статы юнитов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F81920-B93D-4361-9A70-4040AF1B40A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF39EFDA-7DE3-4798-B92E-3A37333508F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CEC3F96-7DAF-4D86-B268-86E324EF35C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6CEC3F96-7DAF-4D86-B268-86E324EF35C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Дочери" sheetId="3" r:id="rId1"/>
-    <sheet name="Базовые характеристики" sheetId="1" r:id="rId2"/>
-    <sheet name="Оружие" sheetId="2" r:id="rId3"/>
+    <sheet name="Попытка 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Попытка 2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="210">
   <si>
     <t>Наименование</t>
   </si>
@@ -69,27 +69,12 @@
     <t>Пехота</t>
   </si>
   <si>
-    <t>Владелец</t>
-  </si>
-  <si>
-    <t>Тип оружия</t>
-  </si>
-  <si>
     <t>Дальность</t>
   </si>
   <si>
     <t>Урон</t>
   </si>
   <si>
-    <t xml:space="preserve">Способности </t>
-  </si>
-  <si>
-    <t>Шанс крита</t>
-  </si>
-  <si>
-    <t>Тип крита</t>
-  </si>
-  <si>
     <t>Пехота, полёт</t>
   </si>
   <si>
@@ -618,10 +603,70 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>MortalDamage vs Save</t>
-  </si>
-  <si>
     <t>Price per damage</t>
+  </si>
+  <si>
+    <t>MortalDamage vs Save round 1</t>
+  </si>
+  <si>
+    <t>MortalDamage vs Save round 3</t>
+  </si>
+  <si>
+    <t>MortalDamage vs Save round 4</t>
+  </si>
+  <si>
+    <t>MortalDamage vs Save round 5</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>HealthbyWard</t>
+  </si>
+  <si>
+    <t>Наименование юнита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во моделей </t>
+  </si>
+  <si>
+    <t>Тип шаблона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здоровье </t>
+  </si>
+  <si>
+    <t>Защита</t>
+  </si>
+  <si>
+    <t>ОД</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Оружие</t>
+  </si>
+  <si>
+    <t>Праща</t>
+  </si>
+  <si>
+    <t>Палица</t>
+  </si>
+  <si>
+    <t>Точность</t>
+  </si>
+  <si>
+    <t>Способности</t>
+  </si>
+  <si>
+    <t>Ключевые слова</t>
+  </si>
+  <si>
+    <t>Атаки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пехота, ангельский союз </t>
   </si>
 </sst>
 </file>
@@ -655,7 +700,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1010,14 +1055,31 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1026,7 +1088,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1047,7 +1109,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1062,7 +1124,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1074,10 +1136,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1089,88 +1151,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1179,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1273,23 +1257,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1303,122 +1367,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,4025 +1698,4342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9C8B7-B2F0-49EE-84B9-5E516AC40781}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q74:Q75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="17" width="27" customWidth="1"/>
-    <col min="18" max="19" width="21" customWidth="1"/>
-    <col min="20" max="21" width="11.28515625" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="19" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="9" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>110</v>
+      </c>
+      <c r="C2" s="15">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="15">
+        <v>6</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15">
+        <v>5</v>
+      </c>
+      <c r="I2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="15">
+        <f t="shared" ref="J2:J23" si="0">C2*F2</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>J2/((I2-1)/6)</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="L2" s="15">
+        <f>(J2/((H2-1)/6))/((I2-1)/6)</f>
+        <v>16.2</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="T2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>100</v>
+      </c>
+      <c r="C3" s="15">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="R1" s="101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="94">
-        <v>110</v>
-      </c>
-      <c r="B2" s="95">
-        <v>9</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="95">
-        <v>6</v>
-      </c>
-      <c r="E2" s="95">
-        <v>1</v>
-      </c>
-      <c r="F2" s="95">
-        <v>1</v>
-      </c>
-      <c r="G2" s="95">
+      <c r="E3" s="15">
+        <v>12</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
         <v>5</v>
       </c>
-      <c r="H2" s="95">
-        <v>6</v>
-      </c>
-      <c r="I2" s="95">
-        <f t="shared" ref="I2:I23" si="0">B2*E2</f>
-        <v>9</v>
-      </c>
-      <c r="J2" s="95">
-        <f t="shared" ref="J2:J23" si="1">(I2/((G2-1)/6))/((H2-1)/6)</f>
-        <v>16.2</v>
-      </c>
-      <c r="K2" s="95">
-        <v>0</v>
-      </c>
-      <c r="L2" s="95">
-        <v>0</v>
-      </c>
-      <c r="M2" s="95">
-        <v>0</v>
-      </c>
-      <c r="N2" s="95">
-        <v>1</v>
-      </c>
-      <c r="O2" s="95"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="98">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="86">
-        <v>100</v>
-      </c>
-      <c r="B3" s="84">
-        <v>5</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="84">
-        <v>12</v>
-      </c>
-      <c r="E3" s="84">
-        <v>2</v>
-      </c>
-      <c r="F3" s="84">
-        <v>1</v>
-      </c>
-      <c r="G3" s="84">
-        <v>5</v>
-      </c>
-      <c r="H3" s="84">
-        <v>6</v>
-      </c>
-      <c r="I3" s="84">
+      <c r="I3" s="15">
+        <v>6</v>
+      </c>
+      <c r="J3" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J3" s="84">
+      <c r="K3">
+        <f t="shared" ref="K3:K23" si="1">J3/((I3-1)/6)</f>
+        <v>12</v>
+      </c>
+      <c r="L3" s="15">
+        <f>(J3/((H3-1)/6))/((I3-1)/6)</f>
+        <v>18</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="T3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>110</v>
+      </c>
+      <c r="C4" s="15">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="15">
+        <v>12</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15">
+        <v>5</v>
+      </c>
+      <c r="I4" s="15">
+        <v>6</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L4" s="15">
+        <f>(J4/((H4-1)/6))/((I4-1)/6)</f>
+        <v>18</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="T4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>140</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="15">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>5</v>
+      </c>
+      <c r="I5" s="15">
+        <v>6</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L5" s="15">
+        <f>(J5/((H5-1)/6))/((I5-1)/6)</f>
+        <v>18</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="T5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>140</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="15">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>5</v>
+      </c>
+      <c r="I6" s="15">
+        <v>6</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L6" s="15">
+        <f>(J6/((H6-1)/6))/((I6-1)/6)</f>
+        <v>18</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="T6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>110</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="15">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15">
+        <v>6</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L7" s="15">
+        <f>(J7/((H7-1)/6))/((I7-1)/6)</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="T7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>110</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="15">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15">
+        <v>6</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L8" s="15">
+        <f>(J8/((H8-1)/6))/((I8-1)/6)</f>
+        <v>18</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="T8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>110</v>
+      </c>
+      <c r="C9" s="15">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>5</v>
+      </c>
+      <c r="I9" s="15">
+        <v>6</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L9" s="15">
+        <f>(J9/((H9-1)/6))/((I9-1)/6)</f>
+        <v>18</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="T9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>130</v>
+      </c>
+      <c r="C10" s="15">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="15">
+        <v>6</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>6</v>
+      </c>
+      <c r="I10" s="15">
+        <v>6</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L10" s="15">
+        <f>(J10/((H10-1)/6))/((I10-1)/6)</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="T10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>150</v>
+      </c>
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="15">
+        <v>14</v>
+      </c>
+      <c r="F11" s="15">
+        <v>3</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>5</v>
+      </c>
+      <c r="I11" s="15">
+        <v>6</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K3" s="84">
-        <v>0</v>
-      </c>
-      <c r="L3" s="84">
-        <v>0</v>
-      </c>
-      <c r="M3" s="84">
-        <v>0</v>
-      </c>
-      <c r="N3" s="84">
-        <v>1</v>
-      </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="99">
+      <c r="L11" s="15">
+        <f>(J11/((H11-1)/6))/((I11-1)/6)</f>
+        <v>27</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="T11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>190</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="15">
+        <v>6</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15">
+        <v>6</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="L12" s="15">
+        <f>(J12/((H12-1)/6))/((I12-1)/6)</f>
+        <v>25.2</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" t="s">
+        <v>180</v>
+      </c>
+      <c r="T12">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
-        <v>110</v>
-      </c>
-      <c r="B4" s="84">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>130</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="15">
+        <v>6</v>
+      </c>
+      <c r="F13" s="15">
         <v>5</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="84">
+      <c r="G13" s="15">
+        <v>2</v>
+      </c>
+      <c r="H13" s="15">
+        <v>5</v>
+      </c>
+      <c r="I13" s="15">
+        <v>6</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="15">
+        <f>(J13/((H13-1)/6))/((I13-1)/6)</f>
+        <v>9</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="S13" t="s">
+        <v>175</v>
+      </c>
+      <c r="T13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>150</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="15">
+        <v>6</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2</v>
+      </c>
+      <c r="H14" s="15">
+        <v>5</v>
+      </c>
+      <c r="I14" s="15">
+        <v>6</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="15">
+        <f>(J14/((H14-1)/6))/((I14-1)/6)</f>
+        <v>9</v>
+      </c>
+      <c r="M14" s="15">
+        <v>1</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="T14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>350</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="15">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15">
         <v>12</v>
       </c>
-      <c r="E4" s="84">
-        <v>2</v>
-      </c>
-      <c r="F4" s="84">
-        <v>1</v>
-      </c>
-      <c r="G4" s="84">
+      <c r="G15" s="15">
         <v>5</v>
       </c>
-      <c r="H4" s="84">
-        <v>6</v>
-      </c>
-      <c r="I4" s="84">
+      <c r="H15" s="15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="15">
+        <v>6</v>
+      </c>
+      <c r="J15" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J4" s="84">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K4" s="84">
-        <v>0</v>
-      </c>
-      <c r="L4" s="84">
-        <v>0</v>
-      </c>
-      <c r="M4" s="84">
-        <v>0</v>
-      </c>
-      <c r="N4" s="84">
-        <v>1</v>
-      </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="99">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="86">
-        <v>140</v>
-      </c>
-      <c r="B5" s="84">
-        <v>5</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="84">
-        <v>8</v>
-      </c>
-      <c r="E5" s="84">
-        <v>2</v>
-      </c>
-      <c r="F5" s="84">
-        <v>1</v>
-      </c>
-      <c r="G5" s="84">
-        <v>5</v>
-      </c>
-      <c r="H5" s="84">
-        <v>6</v>
-      </c>
-      <c r="I5" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J5" s="84">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K5" s="84">
-        <v>0</v>
-      </c>
-      <c r="L5" s="84">
-        <v>0</v>
-      </c>
-      <c r="M5" s="84">
-        <v>0</v>
-      </c>
-      <c r="N5" s="84">
-        <v>1</v>
-      </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="99">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="86">
-        <v>140</v>
-      </c>
-      <c r="B6" s="84">
-        <v>5</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="84">
-        <v>8</v>
-      </c>
-      <c r="E6" s="84">
-        <v>2</v>
-      </c>
-      <c r="F6" s="84">
-        <v>1</v>
-      </c>
-      <c r="G6" s="84">
-        <v>5</v>
-      </c>
-      <c r="H6" s="84">
-        <v>6</v>
-      </c>
-      <c r="I6" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="84">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K6" s="84">
-        <v>0</v>
-      </c>
-      <c r="L6" s="84">
-        <v>0</v>
-      </c>
-      <c r="M6" s="84">
-        <v>0</v>
-      </c>
-      <c r="N6" s="84">
-        <v>1</v>
-      </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="99">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
-        <v>110</v>
-      </c>
-      <c r="B7" s="84">
-        <v>10</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="84">
-        <v>6</v>
-      </c>
-      <c r="E7" s="84">
-        <v>1</v>
-      </c>
-      <c r="F7" s="84">
-        <v>1</v>
-      </c>
-      <c r="G7" s="84">
-        <v>6</v>
-      </c>
-      <c r="H7" s="84">
-        <v>6</v>
-      </c>
-      <c r="I7" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="84">
+        <v>12</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="K7" s="84">
-        <v>0</v>
-      </c>
-      <c r="L7" s="84">
-        <v>0</v>
-      </c>
-      <c r="M7" s="84">
-        <v>0</v>
-      </c>
-      <c r="N7" s="84">
-        <v>1</v>
-      </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="99">
+      <c r="L15" s="15">
+        <f>(J15/((H15-1)/6))/((I15-1)/6)</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="S15" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>140</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="15">
+        <v>6</v>
+      </c>
+      <c r="F16" s="15">
+        <v>5</v>
+      </c>
+      <c r="G16" s="15">
+        <v>2</v>
+      </c>
+      <c r="H16" s="15">
+        <v>5</v>
+      </c>
+      <c r="I16" s="15">
+        <v>6</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L16" s="15">
+        <f>(J16/((H16-1)/6))/((I16-1)/6)</f>
+        <v>9</v>
+      </c>
+      <c r="M16" s="15">
+        <v>1</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>1</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="T16">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="86">
-        <v>110</v>
-      </c>
-      <c r="B8" s="84">
-        <v>10</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="84">
-        <v>6</v>
-      </c>
-      <c r="E8" s="84">
-        <v>1</v>
-      </c>
-      <c r="F8" s="84">
-        <v>1</v>
-      </c>
-      <c r="G8" s="84">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>350</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="15">
+        <v>6</v>
+      </c>
+      <c r="F17" s="15">
+        <v>12</v>
+      </c>
+      <c r="G17" s="15">
         <v>5</v>
       </c>
-      <c r="H8" s="84">
-        <v>6</v>
-      </c>
-      <c r="I8" s="84">
+      <c r="H17" s="15">
+        <v>4</v>
+      </c>
+      <c r="I17" s="15">
+        <v>6</v>
+      </c>
+      <c r="J17" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="84">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K8" s="84">
-        <v>0</v>
-      </c>
-      <c r="L8" s="84">
-        <v>0</v>
-      </c>
-      <c r="M8" s="84">
-        <v>0</v>
-      </c>
-      <c r="N8" s="84">
-        <v>1</v>
-      </c>
-      <c r="O8" s="84"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="86">
-        <v>110</v>
-      </c>
-      <c r="B9" s="84">
-        <v>10</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="84">
-        <v>6</v>
-      </c>
-      <c r="E9" s="84">
-        <v>1</v>
-      </c>
-      <c r="F9" s="84">
-        <v>1</v>
-      </c>
-      <c r="G9" s="84">
-        <v>5</v>
-      </c>
-      <c r="H9" s="84">
-        <v>6</v>
-      </c>
-      <c r="I9" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="84">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K9" s="84">
-        <v>0</v>
-      </c>
-      <c r="L9" s="84">
-        <v>0</v>
-      </c>
-      <c r="M9" s="84">
-        <v>0</v>
-      </c>
-      <c r="N9" s="84">
-        <v>1</v>
-      </c>
-      <c r="O9" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="86">
-        <v>130</v>
-      </c>
-      <c r="B10" s="84">
-        <v>10</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="84">
-        <v>6</v>
-      </c>
-      <c r="E10" s="84">
-        <v>1</v>
-      </c>
-      <c r="F10" s="84">
-        <v>1</v>
-      </c>
-      <c r="G10" s="84">
-        <v>6</v>
-      </c>
-      <c r="H10" s="84">
-        <v>6</v>
-      </c>
-      <c r="I10" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="84">
+        <v>12</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="K10" s="84">
-        <v>0</v>
-      </c>
-      <c r="L10" s="84">
-        <v>0</v>
-      </c>
-      <c r="M10" s="84">
-        <v>0</v>
-      </c>
-      <c r="N10" s="84">
-        <v>1</v>
-      </c>
-      <c r="O10" s="84"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
-        <v>150</v>
-      </c>
-      <c r="B11" s="84">
+      <c r="L17" s="15">
+        <f>(J17/((H17-1)/6))/((I17-1)/6)</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="T17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>160</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="15">
+        <v>8</v>
+      </c>
+      <c r="F18" s="15">
+        <v>6</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
+      <c r="H18" s="15">
         <v>5</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="84">
-        <v>14</v>
-      </c>
-      <c r="E11" s="84">
-        <v>3</v>
-      </c>
-      <c r="F11" s="84">
-        <v>1</v>
-      </c>
-      <c r="G11" s="84">
+      <c r="I18" s="15">
+        <v>6</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L18" s="15">
+        <f>(J18/((H18-1)/6))/((I18-1)/6)</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="M18" s="15">
+        <v>1</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="T18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>180</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="15">
+        <v>8</v>
+      </c>
+      <c r="F19" s="15">
+        <v>6</v>
+      </c>
+      <c r="G19" s="15">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15">
         <v>5</v>
       </c>
-      <c r="H11" s="84">
-        <v>6</v>
-      </c>
-      <c r="I11" s="84">
+      <c r="I19" s="15">
+        <v>6</v>
+      </c>
+      <c r="J19" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J11" s="84">
+        <v>6</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="K11" s="84">
-        <v>0</v>
-      </c>
-      <c r="L11" s="84">
-        <v>1</v>
-      </c>
-      <c r="M11" s="84">
-        <v>0</v>
-      </c>
-      <c r="N11" s="84">
-        <v>1</v>
-      </c>
-      <c r="O11" s="84"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="99" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="86">
-        <v>190</v>
-      </c>
-      <c r="B12" s="84">
-        <v>1</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="84">
-        <v>6</v>
-      </c>
-      <c r="E12" s="84">
-        <v>7</v>
-      </c>
-      <c r="F12" s="84">
-        <v>2</v>
-      </c>
-      <c r="G12" s="84">
-        <v>3</v>
-      </c>
-      <c r="H12" s="84">
-        <v>6</v>
-      </c>
-      <c r="I12" s="84">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J12" s="84">
-        <f t="shared" si="1"/>
-        <v>25.2</v>
-      </c>
-      <c r="K12" s="84">
-        <v>0</v>
-      </c>
-      <c r="L12" s="84">
-        <v>1</v>
-      </c>
-      <c r="M12" s="84">
-        <v>0</v>
-      </c>
-      <c r="N12" s="84">
-        <v>0</v>
-      </c>
-      <c r="O12" s="84"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="R12" s="99">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L19" s="15">
+        <f>(J19/((H19-1)/6))/((I19-1)/6)</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="M19" s="15">
+        <v>1</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="T19">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
-        <v>130</v>
-      </c>
-      <c r="B13" s="84">
-        <v>1</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="84">
-        <v>6</v>
-      </c>
-      <c r="E13" s="84">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>240</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="15">
+        <v>6</v>
+      </c>
+      <c r="F20" s="15">
+        <v>12</v>
+      </c>
+      <c r="G20" s="15">
         <v>5</v>
       </c>
-      <c r="F13" s="84">
-        <v>2</v>
-      </c>
-      <c r="G13" s="84">
-        <v>5</v>
-      </c>
-      <c r="H13" s="84">
-        <v>6</v>
-      </c>
-      <c r="I13" s="84">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J13" s="84">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K13" s="84">
-        <v>1</v>
-      </c>
-      <c r="L13" s="84">
-        <v>0</v>
-      </c>
-      <c r="M13" s="84">
-        <v>0</v>
-      </c>
-      <c r="N13" s="84">
-        <v>0</v>
-      </c>
-      <c r="O13" s="84"/>
-      <c r="P13" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="R13" s="99">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="86">
-        <v>150</v>
-      </c>
-      <c r="B14" s="84">
-        <v>1</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="84">
-        <v>6</v>
-      </c>
-      <c r="E14" s="84">
-        <v>5</v>
-      </c>
-      <c r="F14" s="84">
-        <v>2</v>
-      </c>
-      <c r="G14" s="84">
-        <v>5</v>
-      </c>
-      <c r="H14" s="84">
-        <v>6</v>
-      </c>
-      <c r="I14" s="84">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J14" s="84">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K14" s="84">
-        <v>1</v>
-      </c>
-      <c r="L14" s="84">
-        <v>0</v>
-      </c>
-      <c r="M14" s="84">
-        <v>1</v>
-      </c>
-      <c r="N14" s="84">
-        <v>0</v>
-      </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="86">
-        <v>350</v>
-      </c>
-      <c r="B15" s="84">
-        <v>1</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="84">
-        <v>6</v>
-      </c>
-      <c r="E15" s="84">
-        <v>12</v>
-      </c>
-      <c r="F15" s="84">
-        <v>5</v>
-      </c>
-      <c r="G15" s="84">
+      <c r="H20" s="15">
         <v>4</v>
       </c>
-      <c r="H15" s="84">
-        <v>6</v>
-      </c>
-      <c r="I15" s="84">
+      <c r="I20" s="15">
+        <v>6</v>
+      </c>
+      <c r="J20" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J15" s="84">
+      <c r="K20">
         <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="L20" s="15">
+        <f>(J20/((H20-1)/6))/((I20-1)/6)</f>
         <v>28.799999999999997</v>
       </c>
-      <c r="K15" s="84">
-        <v>1</v>
-      </c>
-      <c r="L15" s="84">
-        <v>0</v>
-      </c>
-      <c r="M15" s="84">
-        <v>1</v>
-      </c>
-      <c r="N15" s="84">
-        <v>0</v>
-      </c>
-      <c r="O15" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="P15" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q15" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="R15" s="99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="86">
-        <v>140</v>
-      </c>
-      <c r="B16" s="84">
-        <v>1</v>
-      </c>
-      <c r="C16" s="84" t="s">
+      <c r="M20" s="15">
+        <v>1</v>
+      </c>
+      <c r="N20" s="15">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="S20" t="s">
+        <v>180</v>
+      </c>
+      <c r="T20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>190</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="84">
-        <v>6</v>
-      </c>
-      <c r="E16" s="84">
+      <c r="E21" s="15">
+        <v>12</v>
+      </c>
+      <c r="F21" s="15">
+        <v>6</v>
+      </c>
+      <c r="G21" s="15">
+        <v>2</v>
+      </c>
+      <c r="H21" s="15">
         <v>5</v>
       </c>
-      <c r="F16" s="84">
+      <c r="I21" s="15">
+        <v>6</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L21" s="15">
+        <f>(J21/((H21-1)/6))/((I21-1)/6)</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <v>1</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="T21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="72">
+        <v>21</v>
+      </c>
+      <c r="B22" s="72">
+        <v>760</v>
+      </c>
+      <c r="C22" s="88">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="15">
+        <v>6</v>
+      </c>
+      <c r="F22" s="15">
+        <v>6</v>
+      </c>
+      <c r="G22" s="15">
         <v>2</v>
       </c>
-      <c r="G16" s="84">
+      <c r="H22" s="15">
         <v>5</v>
       </c>
-      <c r="H16" s="84">
-        <v>6</v>
-      </c>
-      <c r="I16" s="84">
+      <c r="I22" s="15">
+        <v>6</v>
+      </c>
+      <c r="J22" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J16" s="84">
+        <v>6</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K16" s="84">
-        <v>1</v>
-      </c>
-      <c r="L16" s="84">
-        <v>0</v>
-      </c>
-      <c r="M16" s="84">
-        <v>1</v>
-      </c>
-      <c r="N16" s="84">
-        <v>0</v>
-      </c>
-      <c r="O16" s="84"/>
-      <c r="P16" s="92" t="s">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L22" s="15">
+        <f>(J22/((H22-1)/6))/((I22-1)/6)</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1</v>
+      </c>
+      <c r="N22" s="15">
+        <v>3</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="86">
-        <v>350</v>
-      </c>
-      <c r="B17" s="84">
-        <v>1</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="84">
-        <v>6</v>
-      </c>
-      <c r="E17" s="84">
+      <c r="R22" s="15"/>
+      <c r="T22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="88">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="15">
         <v>12</v>
       </c>
-      <c r="F17" s="84">
-        <v>5</v>
-      </c>
-      <c r="G17" s="84">
+      <c r="F23" s="15">
+        <v>12</v>
+      </c>
+      <c r="G23" s="15">
+        <v>10</v>
+      </c>
+      <c r="H23" s="15">
         <v>4</v>
       </c>
-      <c r="H17" s="84">
-        <v>6</v>
-      </c>
-      <c r="I17" s="84">
+      <c r="I23" s="15">
+        <v>6</v>
+      </c>
+      <c r="J23" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17" s="84">
+      <c r="K23">
         <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="L23" s="15">
+        <f>(J23/((H23-1)/6))/((I23-1)/6)</f>
         <v>28.799999999999997</v>
       </c>
-      <c r="K17" s="84">
-        <v>1</v>
-      </c>
-      <c r="L17" s="84">
-        <v>0</v>
-      </c>
-      <c r="M17" s="84">
-        <v>1</v>
-      </c>
-      <c r="N17" s="84">
-        <v>0</v>
-      </c>
-      <c r="O17" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="86">
-        <v>160</v>
-      </c>
-      <c r="B18" s="84">
-        <v>1</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="84">
-        <v>8</v>
-      </c>
-      <c r="E18" s="84">
-        <v>6</v>
-      </c>
-      <c r="F18" s="84">
+      <c r="M23" s="15">
+        <v>1</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="T23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D24" s="89"/>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D25" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="48">
+        <v>0</v>
+      </c>
+      <c r="F25" s="48">
+        <v>7</v>
+      </c>
+      <c r="G25" s="48">
+        <v>7</v>
+      </c>
+      <c r="H25" s="48">
+        <v>4</v>
+      </c>
+      <c r="I25" s="48">
+        <v>6</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D26" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="48">
+        <v>12</v>
+      </c>
+      <c r="F26" s="48">
+        <v>7</v>
+      </c>
+      <c r="G26" s="48">
+        <v>7</v>
+      </c>
+      <c r="H26" s="48">
+        <v>6</v>
+      </c>
+      <c r="I26" s="48">
+        <v>6</v>
+      </c>
+      <c r="J26" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6</v>
+      </c>
+      <c r="J27" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="47"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="O30" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="54"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="44">
         <v>2</v>
       </c>
-      <c r="G18" s="84">
+      <c r="R31" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="S31" s="46">
+        <v>3</v>
+      </c>
+      <c r="T31" s="46"/>
+      <c r="U31" s="44">
+        <v>4</v>
+      </c>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44">
         <v>5</v>
       </c>
-      <c r="H18" s="84">
-        <v>6</v>
-      </c>
-      <c r="I18" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J18" s="84">
-        <f t="shared" si="1"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="K18" s="84">
-        <v>1</v>
-      </c>
-      <c r="L18" s="84">
-        <v>0</v>
-      </c>
-      <c r="M18" s="84">
-        <v>0</v>
-      </c>
-      <c r="N18" s="84">
-        <v>0</v>
-      </c>
-      <c r="O18" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="P18" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="99">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="86">
-        <v>180</v>
-      </c>
-      <c r="B19" s="84">
-        <v>1</v>
-      </c>
-      <c r="C19" s="84" t="s">
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="46">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="46">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="46">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="46">
+        <v>5</v>
+      </c>
+      <c r="AD31" s="46">
+        <v>6</v>
+      </c>
+      <c r="AE31" s="46">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="46">
+        <v>3</v>
+      </c>
+      <c r="AG31" s="46">
+        <v>4</v>
+      </c>
+      <c r="AH31" s="46">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="46">
+        <v>6</v>
+      </c>
+      <c r="AJ31" s="46">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="46">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="46">
+        <v>4</v>
+      </c>
+      <c r="AM31" s="46">
+        <v>5</v>
+      </c>
+      <c r="AN31" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="53">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>110</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="84">
-        <v>8</v>
-      </c>
-      <c r="E19" s="84">
-        <v>6</v>
-      </c>
-      <c r="F19" s="84">
-        <v>2</v>
-      </c>
-      <c r="G19" s="84">
-        <v>5</v>
-      </c>
-      <c r="H19" s="84">
-        <v>6</v>
-      </c>
-      <c r="I19" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J19" s="84">
-        <f t="shared" si="1"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="K19" s="84">
-        <v>1</v>
-      </c>
-      <c r="L19" s="84">
-        <v>1</v>
-      </c>
-      <c r="M19" s="84">
-        <v>0</v>
-      </c>
-      <c r="N19" s="84">
-        <v>0</v>
-      </c>
-      <c r="O19" s="84"/>
-      <c r="P19" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="99">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="86">
-        <v>240</v>
-      </c>
-      <c r="B20" s="84">
-        <v>1</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="84">
-        <v>6</v>
-      </c>
-      <c r="E20" s="84">
-        <v>12</v>
-      </c>
-      <c r="F20" s="84">
-        <v>5</v>
-      </c>
-      <c r="G20" s="84">
-        <v>4</v>
-      </c>
-      <c r="H20" s="84">
-        <v>6</v>
-      </c>
-      <c r="I20" s="84">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J20" s="84">
-        <f t="shared" si="1"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="K20" s="84">
-        <v>1</v>
-      </c>
-      <c r="L20" s="84">
-        <v>1</v>
-      </c>
-      <c r="M20" s="84">
-        <v>0</v>
-      </c>
-      <c r="N20" s="84">
-        <v>0</v>
-      </c>
-      <c r="O20" s="84"/>
-      <c r="P20" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="R20" s="99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="86">
-        <v>190</v>
-      </c>
-      <c r="B21" s="84">
-        <v>1</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="84">
-        <v>12</v>
-      </c>
-      <c r="E21" s="84">
-        <v>6</v>
-      </c>
-      <c r="F21" s="84">
-        <v>2</v>
-      </c>
-      <c r="G21" s="84">
-        <v>5</v>
-      </c>
-      <c r="H21" s="84">
-        <v>6</v>
-      </c>
-      <c r="I21" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J21" s="84">
-        <f t="shared" si="1"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="K21" s="84">
-        <v>1</v>
-      </c>
-      <c r="L21" s="84">
-        <v>0</v>
-      </c>
-      <c r="M21" s="84">
-        <v>1</v>
-      </c>
-      <c r="N21" s="84">
-        <v>0</v>
-      </c>
-      <c r="O21" s="84"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="99">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="88">
-        <v>760</v>
-      </c>
-      <c r="B22" s="85">
-        <v>1</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="84">
-        <v>6</v>
-      </c>
-      <c r="E22" s="84">
-        <v>6</v>
-      </c>
-      <c r="F22" s="84">
-        <v>2</v>
-      </c>
-      <c r="G22" s="84">
-        <v>5</v>
-      </c>
-      <c r="H22" s="84">
-        <v>6</v>
-      </c>
-      <c r="I22" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J22" s="84">
-        <f t="shared" si="1"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="K22" s="84">
-        <v>1</v>
-      </c>
-      <c r="L22" s="84">
-        <v>3</v>
-      </c>
-      <c r="M22" s="84">
-        <v>0</v>
-      </c>
-      <c r="N22" s="84">
-        <v>0</v>
-      </c>
-      <c r="O22" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="99">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4</v>
-      </c>
-      <c r="H23" s="2">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="P23" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C24" s="94"/>
-      <c r="D24" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C25" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="84">
-        <v>0</v>
-      </c>
-      <c r="E25" s="84">
-        <v>7</v>
-      </c>
-      <c r="F25" s="84">
-        <v>7</v>
-      </c>
-      <c r="G25" s="84">
-        <v>4</v>
-      </c>
-      <c r="H25" s="84">
-        <v>6</v>
-      </c>
-      <c r="I25" s="87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C26" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="84">
-        <v>12</v>
-      </c>
-      <c r="E26" s="84">
-        <v>7</v>
-      </c>
-      <c r="F26" s="84">
-        <v>7</v>
-      </c>
-      <c r="G26" s="84">
-        <v>6</v>
-      </c>
-      <c r="H26" s="84">
-        <v>6</v>
-      </c>
-      <c r="I26" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="2">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2">
-        <v>7</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4</v>
-      </c>
-      <c r="H27" s="2">
-        <v>6</v>
-      </c>
-      <c r="I27" s="90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="M30" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="N30" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="O30" s="47" t="s">
+      <c r="E32" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="45">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="R31" s="45">
-        <v>3</v>
-      </c>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45">
-        <v>4</v>
-      </c>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45">
-        <v>5</v>
-      </c>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45">
-        <v>6</v>
-      </c>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>110</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
         <v>7</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ref="N32:N33" si="2">(7-K32)/6+((7-G32-(7-K32))/6*(7-H32)/6)</f>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:O33" si="2">(7-L32)/6+((7-H32-(7-L32))/6*(7-I32)/6)</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
       <c r="P32">
-        <f>$N32*((P$31+$I32)-1)/6*($F32*$B$32+$O32)*$J32</f>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f>$O32*((Q$31+$J32)-1)/6*($G32*$C32+$P32)*$K32</f>
         <v>1.4814814814814814</v>
       </c>
-      <c r="R32">
-        <f t="shared" ref="R32:X33" si="3">$N32*((R$31+$I32)-1)/6*($F32*$B$32+$O32)*$J32</f>
+      <c r="S32">
+        <f t="shared" ref="S32:Y33" si="3">$O32*((S$31+$J32)-1)/6*($G32*$C$32+$P32)*$K32</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="3"/>
         <v>2.9629629629629628</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <f t="shared" si="3"/>
         <v>3.7037037037037042</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <f t="shared" si="3"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="E33" t="s">
+        <v>134</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>4</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>7</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
       <c r="P33">
-        <f>$N33*((P$31+$I33)-1)/6*($F33*$B$32+$O33)*$J33</f>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f>$O33*((Q$31+$J33)-1)/6*($G33*$C$32+$P33)*$K33</f>
         <v>1.0555555555555556</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="3"/>
         <v>2.1111111111111112</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="3"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <f t="shared" si="3"/>
         <v>4.2222222222222223</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <f t="shared" si="3"/>
         <v>5.2777777777777768</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="45">
+        <v>2</v>
+      </c>
+      <c r="B34">
         <v>100</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
       <c r="D34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
       </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>3</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>6</v>
-      </c>
-      <c r="L34" t="s">
-        <v>90</v>
-      </c>
-      <c r="N34">
-        <f>(7-K34)/6+((7-G34-(7-K34))/6*(7-H34)/6)</f>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34" t="s">
+        <v>85</v>
+      </c>
+      <c r="O34">
+        <f>(7-L34)/6+((7-H34-(7-L34))/6*(7-I34)/6)</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
       <c r="P34">
-        <f>$N34*((P$31+$I34)-1)/6*($F34*$B$34+$O34)*$J34</f>
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <f>$O34*((Q$31+$J34)-1)/6*($G34*$C$34+$P34)*$K34</f>
         <v>1.5277777777777775</v>
       </c>
-      <c r="R34">
-        <f t="shared" ref="R34:X34" si="4">$N34*((R$31+$I34)-1)/6*($F34*$B$34+$O34)*$J34</f>
+      <c r="S34">
+        <f t="shared" ref="S34:Y34" si="4">$O34*((S$31+$J34)-1)/6*($G34*$C$34+$P34)*$K34</f>
         <v>2.291666666666667</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f t="shared" si="4"/>
         <v>3.0555555555555549</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <f t="shared" si="4"/>
         <v>3.8194444444444438</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <f t="shared" si="4"/>
         <v>4.5833333333333339</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="53">
+        <v>3</v>
+      </c>
+      <c r="B35">
         <v>110</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
       <c r="D35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>6</v>
-      </c>
-      <c r="L35" t="s">
-        <v>90</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ref="N35:N72" si="5">(7-K35)/6+((7-G35-(7-K35))/6*(7-H35)/6)</f>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O72" si="5">(7-L35)/6+((7-H35-(7-L35))/6*(7-I35)/6)</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
       <c r="P35">
-        <f>$N35*((P$31+$I35)-1)/6*($F35*$B$35+$O35)*$J35</f>
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <f>$O35*((Q$31+$J35)-1)/6*($G35*$C$35+$P35)*$K35</f>
         <v>1.5277777777777775</v>
       </c>
-      <c r="R35">
-        <f t="shared" ref="R35:X36" si="6">$N35*((R$31+$I35)-1)/6*($F35*$B$35+$O35)*$J35</f>
+      <c r="S35">
+        <f t="shared" ref="S35:Y36" si="6">$O35*((S$31+$J35)-1)/6*($G35*$C$35+$P35)*$K35</f>
         <v>2.291666666666667</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="6"/>
         <v>3.0555555555555549</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <f t="shared" si="6"/>
         <v>3.8194444444444438</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <f t="shared" si="6"/>
         <v>4.5833333333333339</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="E36" t="s">
+        <v>138</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>3</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>7</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="N36">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
       <c r="P36">
-        <f>$N36*((P$31+$I36)-1)/6*($F36*$B$35+$O36)*$J36</f>
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <f>$O36*((Q$31+$J36)-1)/6*($G36*$C$35+$P36)*$K36</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <f t="shared" si="6"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <f t="shared" si="6"/>
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="45">
+        <v>4</v>
+      </c>
+      <c r="B37">
         <v>140</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
       <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>2</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>3</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>4</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
       <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="K37">
-        <v>6</v>
-      </c>
-      <c r="L37" t="s">
-        <v>142</v>
-      </c>
-      <c r="N37">
-        <f>((7-G37-(7-K37))/6*(7-H37)/6)</f>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37" t="s">
+        <v>137</v>
+      </c>
+      <c r="O37">
+        <f>((7-H37-(7-L37))/6*(7-I37)/6)</f>
         <v>0.25</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
       <c r="P37">
-        <f>((1/6)+$N37*((P$31+$I37)-1)/6)*($F37*$B$37+$O37)*$J37</f>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <f>((1/6)+$O37*((Q$31+$J37)-1)/6)*($G37*$C$37+$P37)*$K37</f>
         <v>5.5</v>
       </c>
-      <c r="R37">
-        <f t="shared" ref="R37:X37" si="7">((1/6)+$N37*((R$31+$I37)-1)/6)*($F37*$B$37+$O37)*$J37</f>
+      <c r="S37">
+        <f t="shared" ref="S37:Y37" si="7">((1/6)+$O37*((S$31+$J37)-1)/6)*($G37*$C$37+$P37)*$K37</f>
         <v>6.4166666666666661</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="7"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <f t="shared" si="7"/>
         <v>8.25</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <f t="shared" si="7"/>
         <v>9.1666666666666661</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>5</v>
+      </c>
+      <c r="B38">
         <v>140</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
-        <v>101</v>
-      </c>
       <c r="D38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>6</v>
-      </c>
-      <c r="L38" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
       </c>
       <c r="M38" t="s">
-        <v>173</v>
-      </c>
-      <c r="N38">
+        <v>85</v>
+      </c>
+      <c r="N38" t="s">
+        <v>168</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
       <c r="P38">
-        <f>$N38*((P$31+$I38)-1)/6*($F38*$B$38+$O38)*$J38</f>
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f>$O38*((Q$31+$J38)-1)/6*($G38*$C$38+$P38)*$K38</f>
         <v>2.2222222222222219</v>
       </c>
-      <c r="R38">
-        <f t="shared" ref="R38:X39" si="8">$N38*((R$31+$I38)-1)/6*($F38*$B$38+$O38)*$J38</f>
+      <c r="S38">
+        <f t="shared" ref="S38:Y39" si="8">$O38*((S$31+$J38)-1)/6*($G38*$C$38+$P38)*$K38</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="8"/>
         <v>4.4444444444444438</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <f t="shared" si="8"/>
         <v>5.5555555555555545</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <f t="shared" si="8"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="E39" t="s">
+        <v>140</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>2</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>4</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>7</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="N39">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
       <c r="P39">
-        <f>$N39*((P$31+$I39)-1)/6*($F39*$B$38+$O39)*$J39</f>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f>$O39*((Q$31+$J39)-1)/6*($G39*$C$38+$P39)*$K39</f>
         <v>0.61111111111111105</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="8"/>
         <v>1.2222222222222221</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="8"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <f t="shared" si="8"/>
         <v>2.4444444444444442</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <f t="shared" si="8"/>
         <v>3.0555555555555549</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
         <v>110</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
       <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>141</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>4</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>6</v>
-      </c>
-      <c r="L40" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
       </c>
       <c r="M40" t="s">
-        <v>172</v>
-      </c>
-      <c r="N40">
+        <v>85</v>
+      </c>
+      <c r="N40" t="s">
+        <v>167</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
       <c r="P40">
-        <f>$N40*((P$31+$I40)-1)/6*($F40*$B$40+$O40)*$J40</f>
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f>$O40*((Q$31+$J40)-1)/6*($G40*$C$40+$P40)*$K40</f>
         <v>2.1527777777777772</v>
       </c>
-      <c r="R40">
-        <f t="shared" ref="R40:X40" si="9">$N40*((R$31+$I40)-1)/6*($F40*$B$40+$O40)*$J40</f>
+      <c r="S40">
+        <f t="shared" ref="S40:Y40" si="9">$O40*((S$31+$J40)-1)/6*($G40*$C$40+$P40)*$K40</f>
         <v>4.3055555555555545</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <f t="shared" si="9"/>
         <v>6.4583333333333339</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <f t="shared" si="9"/>
         <v>8.6111111111111089</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <f t="shared" si="9"/>
         <v>10.763888888888888</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
         <v>110</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
       <c r="D41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>142</v>
       </c>
       <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>2</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>3</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>6</v>
-      </c>
-      <c r="L41" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
       </c>
       <c r="M41" t="s">
-        <v>174</v>
-      </c>
-      <c r="N41">
+        <v>85</v>
+      </c>
+      <c r="N41" t="s">
+        <v>169</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
       <c r="P41">
-        <f>$N41*((P$31+$I41)-1)/6*($F41*$B$41+$O41)*$J41</f>
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <f>$O41*((Q$31+$J41)-1)/6*($G41*$C$41+$P41)*$K41</f>
         <v>1.458333333333333</v>
       </c>
-      <c r="R41">
-        <f t="shared" ref="R41:X41" si="10">$N41*((R$31+$I41)-1)/6*($F41*$B$41+$O41)*$J41</f>
+      <c r="S41">
+        <f t="shared" ref="S41:Y41" si="10">$O41*((S$31+$J41)-1)/6*($G41*$C$41+$P41)*$K41</f>
         <v>2.9166666666666661</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f t="shared" si="10"/>
         <v>4.375</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <f t="shared" si="10"/>
         <v>5.8333333333333321</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <f t="shared" si="10"/>
         <v>7.2916666666666652</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
         <v>110</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>10</v>
       </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
       <c r="D42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>143</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>2</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>3</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>4</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
         <v>7</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>177</v>
-      </c>
-      <c r="N42">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>172</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
       <c r="P42">
-        <f>$N42*((P$31+$I42)-1)/6*($F42*$B$42+$O42)*$J42</f>
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <f>$O42*((Q$31+$J42)-1)/6*($G42*$C$42+$P42)*$K42</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="R42">
-        <f t="shared" ref="R42:X42" si="11">$N42*((R$31+$I42)-1)/6*($F42*$B$42+$O42)*$J42</f>
+      <c r="S42">
+        <f t="shared" ref="S42:Y42" si="11">$O42*((S$31+$J42)-1)/6*($G42*$C$42+$P42)*$K42</f>
         <v>2.333333333333333</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <f t="shared" si="11"/>
         <v>4.6666666666666661</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <f t="shared" si="11"/>
         <v>5.8333333333333321</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
         <v>130</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
       <c r="D43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
         <v>4</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>7</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>177</v>
-      </c>
-      <c r="N43">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>172</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
       <c r="P43">
-        <f>$N43*((P$31+$I43)-1)/6*($F43*$B$43+$O43)*$J43</f>
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <f>$O43*((Q$31+$J43)-1)/6*($G43*$C$43+$P43)*$K43</f>
         <v>1.7222222222222221</v>
       </c>
-      <c r="R43">
-        <f t="shared" ref="R43:X43" si="12">$N43*((R$31+$I43)-1)/6*($F43*$B$43+$O43)*$J43</f>
+      <c r="S43">
+        <f t="shared" ref="S43:Y43" si="12">$O43*((S$31+$J43)-1)/6*($G43*$C$43+$P43)*$K43</f>
         <v>3.4444444444444442</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="12"/>
         <v>5.1666666666666661</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <f t="shared" si="12"/>
         <v>6.8888888888888884</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <f t="shared" si="12"/>
         <v>8.6111111111111089</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="53">
+        <v>10</v>
+      </c>
+      <c r="B44">
         <v>150</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
       <c r="D44" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>4</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
         <v>7</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="N44">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
       <c r="P44">
-        <f>$N44*((P$31+$I44)-1)/6*($F44*$B$44+$O44)*$J44</f>
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <f>$O44*((Q$31+$J44)-1)/6*($G44*$C$44+$P44)*$K44</f>
         <v>0.61111111111111105</v>
       </c>
-      <c r="R44">
-        <f t="shared" ref="R44:X46" si="13">$N44*((R$31+$I44)-1)/6*($F44*$B$44+$O44)*$J44</f>
+      <c r="S44">
+        <f t="shared" ref="S44:Y46" si="13">$O44*((S$31+$J44)-1)/6*($G44*$C$44+$P44)*$K44</f>
         <v>1.2222222222222221</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="13"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <f t="shared" si="13"/>
         <v>2.4444444444444442</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <f t="shared" si="13"/>
         <v>3.0555555555555549</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="E45" t="s">
+        <v>146</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>2</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>3</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
         <v>7</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
       <c r="P45">
-        <f>$N45*((P$31+$I45)-1)/6*($F45*$B$44+$O45)*$J45</f>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f>$O45*((Q$31+$J45)-1)/6*($G45*$C$44+$P45)*$K45</f>
         <v>1.2222222222222221</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="13"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="13"/>
         <v>2.4444444444444442</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <f t="shared" si="13"/>
         <v>3.0555555555555549</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <f t="shared" si="13"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="E46" t="s">
+        <v>147</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>2</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>5</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>7</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
       <c r="P46">
-        <f>$N46*((P$31+$I46)-1)/6*($F46*$B$44+$O46)*$J46</f>
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <f>$O46*((Q$31+$J46)-1)/6*($G46*$C$44+$P46)*$K46</f>
         <v>0.40740740740740738</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="13"/>
         <v>0.81481481481481477</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="13"/>
         <v>1.2222222222222221</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <f t="shared" si="13"/>
         <v>1.6296296296296295</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <f t="shared" si="13"/>
         <v>2.0370370370370372</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="53">
+        <v>11</v>
+      </c>
+      <c r="B47">
         <v>190</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>148</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
         <v>7</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="N47">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
       <c r="P47">
-        <f>$N47*((P$31+$I47)-1)/6*($F47*$B$47+$O47)*$J47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f>$O47*((Q$31+$J47)-1)/6*($G47*$C$47+$P47)*$K47</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="R47">
-        <f t="shared" ref="R47:X48" si="14">$N47*((R$31+$I47)-1)/6*($F47*$B$47+$O47)*$J47</f>
+      <c r="S47">
+        <f t="shared" ref="S47:Y48" si="14">$O47*((S$31+$J47)-1)/6*($G47*$C$47+$P47)*$K47</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="14"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <f t="shared" si="14"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <f t="shared" si="14"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="E48" t="s">
+        <v>149</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>5</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
         <v>2</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>3</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>7</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="N48">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
       <c r="P48">
-        <f>$N48*((P$31+$I48)-1)/6*($F48*$B$47+$O48)*$J48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f>$O48*((Q$31+$J48)-1)/6*($G48*$C$47+$P48)*$K48</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f t="shared" si="14"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="14"/>
         <v>5.5555555555555562</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <f t="shared" si="14"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="X48">
-        <f>V48</f>
+      <c r="Y48">
+        <f>W48</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
         <v>130</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
+        <v>150</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
         <v>3</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>4</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
       <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
         <v>2</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>7</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
       <c r="P49">
-        <f>$N49*((P$31+$I49)-1)/6*($F49*$B$49+$O49)*$J49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f>$O49*((Q$31+$J49)-1)/6*($G49*$C$49+$P49)*$K49</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="R49">
-        <f t="shared" ref="R49:X49" si="15">$N49*((R$31+$I49)-1)/6*($F49*$B$49+$O49)*$J49</f>
+      <c r="S49">
+        <f t="shared" ref="S49:Y49" si="15">$O49*((S$31+$J49)-1)/6*($G49*$C$49+$P49)*$K49</f>
         <v>2</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="15"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <f t="shared" si="15"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
         <v>150</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
+      <c r="C50">
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
         <v>3</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>4</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
         <v>2</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>7</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
       <c r="P50">
-        <f>$N50*((P$31+$I50)-1)/6*($F50*$B$50+$O50)*$J50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>$O50*((Q$31+$J50)-1)/6*($G50*$C$50+$P50)*$K50</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="R50">
-        <f t="shared" ref="R50:X50" si="16">$N50*((R$31+$I50)-1)/6*($F50*$B$50+$O50)*$J50</f>
+      <c r="S50">
+        <f t="shared" ref="S50:Y50" si="16">$O50*((S$31+$J50)-1)/6*($G50*$C$50+$P50)*$K50</f>
         <v>2</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="16"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <f t="shared" si="16"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
+        <v>14</v>
+      </c>
+      <c r="B51">
         <v>350</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>110</v>
+      <c r="C51">
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>7</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
       <c r="P51">
-        <f>$N51*((P$31+$I51)-1)/6*($F51*$B$51+$O51)*$J51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f>$O51*((Q$31+$J51)-1)/6*($G51*$C$51+$P51)*$K51</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="R51">
-        <f t="shared" ref="R51:X54" si="17">$N51*((R$31+$I51)-1)/6*($F51*$B$51+$O51)*$J51</f>
+      <c r="S51">
+        <f t="shared" ref="S51:Y54" si="17">$O51*((S$31+$J51)-1)/6*($G51*$C$51+$P51)*$K51</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="17"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <f t="shared" si="17"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="E52" t="s">
+        <v>152</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52">
         <v>3</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>4</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
       <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
         <v>2</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>7</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="N52">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
-        <f>$N52*((P$31+$I52)-1)/6*($F52*$B$51+$O52)*$J52</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>$O52*((Q$31+$J52)-1)/6*($G52*$C$51+$P52)*$K52</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <f t="shared" si="17"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="E53" t="s">
+        <v>149</v>
       </c>
       <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>5</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
         <v>2</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>3</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>7</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="N53">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
       <c r="P53">
-        <f>$N53*((P$31+$I53)-1)/6*($F53*$B$51+$O53)*$J53</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f>$O53*((Q$31+$J53)-1)/6*($G53*$C$51+$P53)*$K53</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f t="shared" si="17"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="17"/>
         <v>5.5555555555555562</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <f t="shared" si="17"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="X53">
-        <f>V53</f>
+      <c r="Y53">
+        <f>W53</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="E54" t="s">
+        <v>153</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>4</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
         <v>7</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="N54">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
       <c r="P54">
-        <f>$N54*((P$31+$I54)-1)/6*($F54*$B$51+$O54)*$J54</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f>$O54*((Q$31+$J54)-1)/6*($G54*$C$51+$P54)*$K54</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <f t="shared" si="17"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <f t="shared" si="17"/>
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55">
         <v>140</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>112</v>
+      <c r="C55">
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>154</v>
       </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>4</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>4</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
       <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
         <v>2</v>
       </c>
-      <c r="K55">
-        <v>6</v>
-      </c>
-      <c r="L55" t="s">
-        <v>142</v>
-      </c>
-      <c r="N55">
-        <f>((7-G55-(7-K55))/6*(7-H55)/6)</f>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>137</v>
+      </c>
+      <c r="O55">
+        <f>((7-H55-(7-L55))/6*(7-I55)/6)</f>
         <v>0.25</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
       <c r="P55">
-        <f>((1/6)+$N55*((P$31+$I55)-1)/6)*($F55*$B$55+$O55)*$J55</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f>((1/6)+$O55*((Q$31+$J55)-1)/6)*($G55*$C$55+$P55)*$K55</f>
         <v>2</v>
       </c>
-      <c r="R55">
-        <f t="shared" ref="R55:X55" si="18">((1/6)+$N55*((R$31+$I55)-1)/6)*($F55*$B$55+$O55)*$J55</f>
+      <c r="S55">
+        <f t="shared" ref="S55:Y55" si="18">((1/6)+$O55*((S$31+$J55)-1)/6)*($G55*$C$55+$P55)*$K55</f>
         <v>2.333333333333333</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <f t="shared" si="18"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <f t="shared" si="18"/>
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="53">
+        <v>16</v>
+      </c>
+      <c r="B56">
         <v>350</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
+      <c r="C56">
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
         <v>7</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="N56">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
       <c r="P56">
-        <f>$N56*((P$31+$I56)-1)/6*($F56*$B$56+$O56)*$J56</f>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f>$O56*((Q$31+$J56)-1)/6*($G56*$C$56+$P56)*$K56</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="R56">
-        <f t="shared" ref="R56:X59" si="19">$N56*((R$31+$I56)-1)/6*($F56*$B$56+$O56)*$J56</f>
+      <c r="S56">
+        <f t="shared" ref="S56:Y59" si="19">$O56*((S$31+$J56)-1)/6*($G56*$C$56+$P56)*$K56</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <f t="shared" si="19"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <f t="shared" si="19"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <f t="shared" si="19"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="E57" t="s">
+        <v>154</v>
       </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>4</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>3</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>4</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
         <v>2</v>
       </c>
-      <c r="K57">
-        <v>6</v>
-      </c>
-      <c r="L57" t="s">
-        <v>142</v>
-      </c>
-      <c r="N57">
-        <f>((7-G57-(7-K57))/6*(7-H57)/6)</f>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57" t="s">
+        <v>137</v>
+      </c>
+      <c r="O57">
+        <f>((7-H57-(7-L57))/6*(7-I57)/6)</f>
         <v>0.25</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
       <c r="P57">
-        <f>((1/6)+$N57*((P$31+$I57)-1)/6)*($F57*$B$56+$O57)*$J57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>((1/6)+$O57*((Q$31+$J57)-1)/6)*($G57*$C$56+$P57)*$K57</f>
         <v>2</v>
       </c>
-      <c r="R57">
-        <f t="shared" ref="R57:X57" si="20">(($J$57/6)+$N57*((R$31+$I57)-1)/6)*($F57*$B$56+$O57)*$J57</f>
+      <c r="S57">
+        <f t="shared" ref="S57:Y57" si="20">(($K$57/6)+$O57*((S$31+$J57)-1)/6)*($G57*$C$56+$P57)*$K57</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <f t="shared" si="20"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <f t="shared" si="20"/>
         <v>4.6666666666666661</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="E58" t="s">
+        <v>149</v>
       </c>
       <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>5</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
       </c>
       <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
         <v>2</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>3</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>7</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="N58">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
       <c r="P58">
-        <f>$N58*((P$31+$I58)-1)/6*($F58*$B$56+$O58)*$J58</f>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f>$O58*((Q$31+$J58)-1)/6*($G58*$C$56+$P58)*$K58</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <f t="shared" si="19"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <f t="shared" si="19"/>
         <v>5.5555555555555562</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <f t="shared" si="19"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="X58">
-        <f>V58</f>
+      <c r="Y58">
+        <f>W58</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="E59" t="s">
+        <v>153</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
         <v>3</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>4</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
         <v>7</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="N59">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
       <c r="P59">
-        <f>$N59*((P$31+$I59)-1)/6*($F59*$B$56+$O59)*$J59</f>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f>$O59*((Q$31+$J59)-1)/6*($G59*$C$56+$P59)*$K59</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <f t="shared" si="19"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <f t="shared" si="19"/>
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="53">
+        <v>17</v>
+      </c>
+      <c r="B60">
         <v>160</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>114</v>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
       </c>
       <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>2</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
         <v>2</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>7</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="N60">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
       <c r="P60">
-        <f>$N60*((P$31+$I60)-1)/6*($F60*$B$60+$O60)*$J60</f>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f>$O60*((Q$31+$J60)-1)/6*($G60*$C$60+$P60)*$K60</f>
         <v>0.59259259259259256</v>
       </c>
-      <c r="R60">
-        <f t="shared" ref="R60:X61" si="21">$N60*((R$31+$I60)-1)/6*($F60*$B$60+$O60)*$J60</f>
+      <c r="S60">
+        <f t="shared" ref="S60:Y61" si="21">$O60*((S$31+$J60)-1)/6*($G60*$C$60+$P60)*$K60</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <f t="shared" si="21"/>
         <v>1.1851851851851851</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <f t="shared" si="21"/>
         <v>1.4814814814814816</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <f t="shared" si="21"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="53"/>
+      <c r="E61" t="s">
+        <v>155</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61">
         <v>3</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>4</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
         <v>2</v>
       </c>
-      <c r="K61">
-        <v>6</v>
-      </c>
       <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="N61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
       <c r="P61">
-        <f>$N61*((P$31+$I61)-1)/6*($F61*$B$60+$O61)*$J61</f>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f>$O61*((Q$31+$J61)-1)/6*($G61*$C$60+$P61)*$K61</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <f t="shared" si="21"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <f t="shared" si="21"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="53">
+        <v>18</v>
+      </c>
+      <c r="B62">
         <v>180</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>115</v>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="E62" t="s">
+        <v>156</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>2</v>
       </c>
-      <c r="J62" t="s">
-        <v>163</v>
-      </c>
-      <c r="K62">
+      <c r="K62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L62">
         <v>7</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="N62">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="5"/>
         <v>0.97222222222222232</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="e">
-        <f t="shared" ref="P62" si="22">$N62*((P$31+$I62)-1)/6*($F62*$B$32+O62)*$J62</f>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="e">
+        <f t="shared" ref="Q62" si="22">$O62*((Q$31+$J62)-1)/6*($G62*$C$32+P62)*$K62</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R62" t="e">
-        <f>$N62*((R$31+$I62)-1)/6*($F62*$B$32+P62)*$J62</f>
+      <c r="S62" t="e">
+        <f>$O62*((S$31+$J62)-1)/6*($G62*$C$32+Q62)*$K62</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T62" t="e">
-        <f>$N62*((T$31+$I62)-1)/6*($F62*$B$32+R62)*$J62</f>
+      <c r="U62" t="e">
+        <f>$O62*((U$31+$J62)-1)/6*($G62*$C$32+S62)*$K62</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V62" t="e">
-        <f>$N62*((V$31+$I62)-1)/6*($F62*$B$32+T62)*$J62</f>
+      <c r="W62" t="e">
+        <f>$O62*((W$31+$J62)-1)/6*($G62*$C$32+U62)*$K62</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X62" t="e">
-        <f>$N62*((X$31+$I62)-1)/6*($F62*$B$32+V62)*$J62</f>
+      <c r="Y62" t="e">
+        <f>$O62*((Y$31+$J62)-1)/6*($G62*$C$32+W62)*$K62</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="E63" t="s">
+        <v>157</v>
       </c>
       <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>5</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>3</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>4</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
         <v>2</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>7</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="N63">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
       <c r="P63">
-        <f>$N63*((P$31+$I63)-1)/6*($F63*$B$62+$O63)*$J63</f>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f>$O63*((Q$31+$J63)-1)/6*($G63*$C$62+$P63)*$K63</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="R63">
-        <f t="shared" ref="R63:X63" si="23">$N63*((R$31+$I63)-1)/6*($F63*$B$62+$O63)*$J63</f>
+      <c r="S63">
+        <f t="shared" ref="S63:Y63" si="23">$O63*((S$31+$J63)-1)/6*($G63*$C$62+$P63)*$K63</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <f t="shared" si="23"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <f t="shared" si="23"/>
         <v>2.7777777777777772</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <f t="shared" si="23"/>
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="53">
+        <v>19</v>
+      </c>
+      <c r="B64">
         <v>240</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>116</v>
+      <c r="C64">
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="E64" t="s">
+        <v>156</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>2</v>
       </c>
-      <c r="J64" t="s">
-        <v>163</v>
-      </c>
-      <c r="K64">
+      <c r="K64" t="s">
+        <v>158</v>
+      </c>
+      <c r="L64">
         <v>7</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="N64">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="5"/>
         <v>0.97222222222222232</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="e">
-        <f t="shared" ref="P64" si="24">$N64*((P$31+$I64)-1)/6*($F64*$B$32+O64)*$J64</f>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="e">
+        <f t="shared" ref="Q64" si="24">$O64*((Q$31+$J64)-1)/6*($G64*$C$32+P64)*$K64</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R64" t="e">
-        <f>$N64*((R$31+$I64)-1)/6*($F64*$B$32+P64)*$J64</f>
+      <c r="S64" t="e">
+        <f>$O64*((S$31+$J64)-1)/6*($G64*$C$32+Q64)*$K64</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T64" t="e">
-        <f>$N64*((T$31+$I64)-1)/6*($F64*$B$32+R64)*$J64</f>
+      <c r="U64" t="e">
+        <f>$O64*((U$31+$J64)-1)/6*($G64*$C$32+S64)*$K64</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V64" t="e">
-        <f>$N64*((V$31+$I64)-1)/6*($F64*$B$32+T64)*$J64</f>
+      <c r="W64" t="e">
+        <f>$O64*((W$31+$J64)-1)/6*($G64*$C$32+U64)*$K64</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X64" t="e">
-        <f>$N64*((X$31+$I64)-1)/6*($F64*$B$32+V64)*$J64</f>
+      <c r="Y64" t="e">
+        <f>$O64*((Y$31+$J64)-1)/6*($G64*$C$32+W64)*$K64</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="E65" t="s">
+        <v>157</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
         <v>5</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>3</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>4</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
       </c>
       <c r="J65">
         <v>2</v>
       </c>
       <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
         <v>7</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="N65">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
       <c r="P65">
-        <f>$N65*((P$31+$I65)-1)/6*($F65*$B$64+$O65)*$J65</f>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f>$O65*((Q$31+$J65)-1)/6*($G65*$C$64+$P65)*$K65</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="R65">
-        <f t="shared" ref="R65:X66" si="25">$N65*((R$31+$I65)-1)/6*($F65*$B$64+$O65)*$J65</f>
+      <c r="S65">
+        <f t="shared" ref="S65:Y66" si="25">$O65*((S$31+$J65)-1)/6*($G65*$C$64+$P65)*$K65</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <f t="shared" si="25"/>
         <v>2.7777777777777772</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <f t="shared" si="25"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="X65">
-        <f>V65</f>
+      <c r="Y65">
+        <f>W65</f>
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="53"/>
+      <c r="E66" t="s">
+        <v>159</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
         <v>3</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>4</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
         <v>7</v>
       </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="N66">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
       <c r="P66">
-        <f>$N66*((P$31+$I66)-1)/6*($F66*$B$64+$O66)*$J66</f>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f>$O66*((Q$31+$J66)-1)/6*($G66*$C$64+$P66)*$K66</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <f t="shared" si="25"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <f t="shared" si="25"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>20</v>
+      </c>
+      <c r="B67">
         <v>190</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>117</v>
+      <c r="C67">
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="E67" t="s">
+        <v>160</v>
       </c>
       <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
         <v>4</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>3</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>4</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
         <v>2</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>7</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="N67">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="O67">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
       <c r="P67">
-        <f>$N67*((P$31+$I67)-1)/6*($F67*$B$67+$O67)*$J67</f>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f>$O67*((Q$31+$J67)-1)/6*($G67*$C$67+$P67)*$K67</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="R67">
-        <f t="shared" ref="R67:X67" si="26">$N67*((R$31+$I67)-1)/6*($F67*$B$67+$O67)*$J67</f>
+      <c r="S67">
+        <f t="shared" ref="S67:Y67" si="26">$O67*((S$31+$J67)-1)/6*($G67*$C$67+$P67)*$K67</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <f t="shared" si="26"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <f t="shared" si="26"/>
         <v>2.2222222222222219</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <f t="shared" si="26"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="47">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="53">
+        <v>21</v>
+      </c>
+      <c r="B68" s="53">
         <v>760</v>
       </c>
-      <c r="B68" s="43">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>118</v>
+      <c r="C68" s="43">
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>161</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <v>5</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>3</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>4</v>
-      </c>
-      <c r="I68">
-        <v>2</v>
       </c>
       <c r="J68">
         <v>2</v>
       </c>
       <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
         <v>7</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="N68">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
-        <f>$N68*((P$31+$I68)-1)/6*($F68*$B$68+$O68)*$J68</f>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f>$O68*((Q$31+$J68)-1)/6*($G68*$C$68+$P68)*$K68</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="R68">
-        <f t="shared" ref="R68:V68" si="27">$N68*((R$31+$I68)-1)/6*($F68*$B$68+$O68)*$J68</f>
+      <c r="S68">
+        <f t="shared" ref="S68:W68" si="27">$O68*((S$31+$J68)-1)/6*($G68*$C$68+$P68)*$K68</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <f t="shared" si="27"/>
         <v>2.7777777777777772</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <f t="shared" si="27"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="X68">
-        <f>V68</f>
+      <c r="Y68">
+        <f>W68</f>
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="43">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>119</v>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="43">
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
         <v>3</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>3.5</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>7</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="N69">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="5"/>
         <v>0.69444444444444453</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
       <c r="P69">
-        <f>$N69*((P$31+$I69)-1)/6*($F69*$B$69+$O69)*$J69</f>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f>$O69*((Q$31+$J69)-1)/6*($G69*$C$69+$P69)*$K69</f>
         <v>1.6203703703703707</v>
       </c>
-      <c r="R69">
-        <f t="shared" ref="R69:X72" si="28">$N69*((R$31+$I69)-1)/6*($F69*$B$69+$O69)*$J69</f>
+      <c r="S69">
+        <f t="shared" ref="S69:Y72" si="28">$O69*((S$31+$J69)-1)/6*($G69*$C$69+$P69)*$K69</f>
         <v>2.0254629629629632</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <f t="shared" si="28"/>
         <v>2.4305555555555558</v>
       </c>
-      <c r="V69">
-        <f>T69</f>
+      <c r="W69">
+        <f>U69</f>
         <v>2.4305555555555558</v>
       </c>
-      <c r="X69">
-        <f>V69</f>
+      <c r="Y69">
+        <f>W69</f>
         <v>2.4305555555555558</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>168</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>163</v>
       </c>
       <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>8</v>
-      </c>
-      <c r="G70">
-        <v>3</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
         <v>2</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>3</v>
       </c>
-      <c r="K70">
-        <v>6</v>
-      </c>
-      <c r="L70" t="s">
-        <v>142</v>
-      </c>
-      <c r="N70">
-        <f>((7-G70-(7-K70))/6*(7-H70)/6)</f>
+      <c r="L70">
+        <v>6</v>
+      </c>
+      <c r="M70" t="s">
+        <v>137</v>
+      </c>
+      <c r="O70">
+        <f>((7-H70-(7-L70))/6*(7-I70)/6)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
       <c r="P70">
-        <f>((1/6)+$N70*((P$31+$I70)-1)/6)*($F70*$B$69+$O70)*$J70</f>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f>((1/6)+$O70*((Q$31+$J70)-1)/6)*($G70*$C$69+$P70)*$K70</f>
         <v>8</v>
       </c>
-      <c r="R70">
-        <f t="shared" ref="R70:V70" si="29">(($J$70/6)+$N70*((R$31+$I70)-1)/6)*($F70*$B$69+$O70)*$J70</f>
+      <c r="S70">
+        <f t="shared" ref="S70:W70" si="29">(($K$70/6)+$O70*((S$31+$J70)-1)/6)*($G70*$C$69+$P70)*$K70</f>
         <v>17.333333333333332</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <f t="shared" si="29"/>
         <v>18.666666666666664</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="X70">
-        <f>V70</f>
+      <c r="Y70">
+        <f>W70</f>
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>164</v>
       </c>
       <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <v>7</v>
-      </c>
-      <c r="G71">
-        <v>4</v>
       </c>
       <c r="H71">
         <v>4</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
         <v>7</v>
       </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="N71">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
       <c r="P71">
-        <f>$N71*((P$31+$I71)-1)/6*($F71*$B$69+$O71)*$J71</f>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f>$O71*((Q$31+$J71)-1)/6*($G71*$C$69+$P71)*$K71</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <f t="shared" si="28"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <f t="shared" si="28"/>
         <v>0.875</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <f t="shared" si="28"/>
         <v>1.1666666666666665</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <f t="shared" si="28"/>
         <v>1.4583333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>170</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>165</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>3</v>
       </c>
       <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
         <v>2</v>
       </c>
-      <c r="J72">
-        <v>6</v>
-      </c>
       <c r="K72">
+        <v>6</v>
+      </c>
+      <c r="L72">
         <v>7</v>
       </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="N72">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
       <c r="P72">
-        <f>$N72*((P$31+$I72)-1)/6*($F72*$B$69+$O72)*$J72</f>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f>$O72*((Q$31+$J72)-1)/6*($G72*$C$69+$P72)*$K72</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <f t="shared" si="28"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <f t="shared" si="28"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <f t="shared" si="28"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X72">
-        <f>V72</f>
+      <c r="Y72">
+        <f>W72</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
+  <mergeCells count="34">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A66"/>
     <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="AJ30:AN30"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="P30:X30"/>
-    <mergeCell ref="A28:Y29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="Q30:Y30"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
@@ -5761,6 +6042,15 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5772,7 +6062,7 @@
   <dimension ref="A1:CO23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>5</v>
@@ -5819,13 +6109,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -5911,7 +6201,7 @@
     </row>
     <row r="2" spans="1:93" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="20">
         <v>9</v>
@@ -5940,7 +6230,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -6025,39 +6315,39 @@
       <c r="CO2" s="15"/>
     </row>
     <row r="3" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="53">
+      <c r="A3" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="83">
         <v>10</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="85">
         <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="85">
         <v>1</v>
       </c>
       <c r="F3" s="13">
         <v>6</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="85">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -6142,29 +6432,29 @@
       <c r="CO3" s="15"/>
     </row>
     <row r="4" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="14">
         <v>6</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -6249,39 +6539,39 @@
       <c r="CO4" s="15"/>
     </row>
     <row r="5" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="53">
+      <c r="A5" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="83">
         <v>10</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="85">
         <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="85">
         <v>1</v>
       </c>
       <c r="F5" s="13">
         <v>6</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="85">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -6366,29 +6656,29 @@
       <c r="CO5" s="15"/>
     </row>
     <row r="6" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="14">
         <v>6</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -6473,39 +6763,39 @@
       <c r="CO6" s="15"/>
     </row>
     <row r="7" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="53">
+      <c r="A7" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="83">
         <v>5</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="85">
         <v>15</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="85">
         <v>10</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="85">
         <v>1</v>
       </c>
       <c r="F7" s="13">
         <v>8</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="85">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -6590,27 +6880,27 @@
       <c r="CO7" s="15"/>
     </row>
     <row r="8" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="14">
         <v>8</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -6695,39 +6985,39 @@
       <c r="CO8" s="15"/>
     </row>
     <row r="9" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="53">
+      <c r="A9" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="83">
         <v>5</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="85">
         <v>15</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="85">
         <v>10</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="85">
         <v>1</v>
       </c>
       <c r="F9" s="13">
         <v>12</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="85">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -6812,27 +7102,27 @@
       <c r="CO9" s="15"/>
     </row>
     <row r="10" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="14">
         <v>12</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -6918,7 +7208,7 @@
     </row>
     <row r="11" spans="1:93" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" s="21">
         <v>5</v>
@@ -6939,15 +7229,15 @@
         <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -7033,7 +7323,7 @@
     </row>
     <row r="12" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12" s="22">
         <v>1</v>
@@ -7051,16 +7341,16 @@
         <v>3</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -7145,105 +7435,105 @@
       <c r="CO12" s="15"/>
     </row>
     <row r="13" spans="1:93" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="65">
+        <v>1</v>
+      </c>
+      <c r="C13" s="68">
+        <v>50</v>
+      </c>
+      <c r="D13" s="68">
+        <v>25</v>
+      </c>
+      <c r="E13" s="68">
+        <v>5</v>
+      </c>
+      <c r="F13" s="68">
+        <v>6</v>
+      </c>
+      <c r="G13" s="65">
+        <v>3</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:93" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="72"/>
+    </row>
+    <row r="15" spans="1:93" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="73"/>
+    </row>
+    <row r="16" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="64">
-        <v>1</v>
-      </c>
-      <c r="C13" s="61">
-        <v>50</v>
-      </c>
-      <c r="D13" s="61">
-        <v>25</v>
-      </c>
-      <c r="E13" s="61">
-        <v>5</v>
-      </c>
-      <c r="F13" s="61">
-        <v>6</v>
-      </c>
-      <c r="G13" s="64">
-        <v>3</v>
-      </c>
-      <c r="H13" s="73" t="s">
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="55">
+        <v>40</v>
+      </c>
+      <c r="D16" s="55">
+        <v>10</v>
+      </c>
+      <c r="E16" s="55">
+        <v>2</v>
+      </c>
+      <c r="F16" s="55">
+        <v>6</v>
+      </c>
+      <c r="G16" s="55">
+        <v>2</v>
+      </c>
+      <c r="H16" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="70" t="s">
+      <c r="I16" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="55"/>
+      <c r="L16" s="74" t="s">
         <v>61</v>
-      </c>
-      <c r="K13" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:93" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="56"/>
-    </row>
-    <row r="15" spans="1:93" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="57"/>
-    </row>
-    <row r="16" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="58">
-        <v>1</v>
-      </c>
-      <c r="C16" s="58">
-        <v>40</v>
-      </c>
-      <c r="D16" s="58">
-        <v>10</v>
-      </c>
-      <c r="E16" s="58">
-        <v>2</v>
-      </c>
-      <c r="F16" s="58">
-        <v>6</v>
-      </c>
-      <c r="G16" s="58">
-        <v>2</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="60" t="s">
-        <v>66</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
@@ -7328,18 +7618,18 @@
       <c r="CO16" s="15"/>
     </row>
     <row r="17" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="57"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="73"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
@@ -7424,7 +7714,7 @@
     </row>
     <row r="18" spans="1:93" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
@@ -7445,16 +7735,16 @@
         <v>2</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -7540,7 +7830,7 @@
     </row>
     <row r="19" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
@@ -7561,13 +7851,13 @@
         <v>3</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -7653,7 +7943,7 @@
     </row>
     <row r="20" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -7674,16 +7964,16 @@
         <v>3</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -7769,7 +8059,7 @@
     </row>
     <row r="21" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B21" s="41">
         <v>1</v>
@@ -7790,32 +8080,46 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:93" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:93" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="L16:L17"/>
@@ -7832,79 +8136,209 @@
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F1838-8BF0-49CA-8194-D838573B6446}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E07967B-C483-43F8-A0B6-7D00D3280B60}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="53">
+        <v>10</v>
+      </c>
+      <c r="E2" s="53">
+        <v>1</v>
+      </c>
+      <c r="F2" s="53">
+        <v>6</v>
+      </c>
+      <c r="G2" s="53">
+        <v>2</v>
+      </c>
+      <c r="H2" s="53">
+        <v>0</v>
+      </c>
+      <c r="I2" s="53">
+        <v>1</v>
+      </c>
+      <c r="J2" s="53">
+        <v>2</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="91"/>
+      <c r="L3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Статы юнитов/Ангельский союз.xlsx
+++ b/Статы юнитов/Ангельский союз.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Git\DocumentationRepo\Статы юнитов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF39EFDA-7DE3-4798-B92E-3A37333508F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE8615E-5992-4CBD-8CDD-E72667F5E1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6CEC3F96-7DAF-4D86-B268-86E324EF35C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CEC3F96-7DAF-4D86-B268-86E324EF35C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Дочери" sheetId="3" r:id="rId1"/>
@@ -673,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +685,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1163,7 +1181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1271,89 +1289,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,22 +1321,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9C8B7-B2F0-49EE-84B9-5E516AC40781}">
   <dimension ref="A1:AN72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1845,7 @@
         <v>10.799999999999999</v>
       </c>
       <c r="L2" s="15">
-        <f>(J2/((H2-1)/6))/((I2-1)/6)</f>
+        <f t="shared" ref="L2:L23" si="1">(J2/((H2-1)/6))/((I2-1)/6)</f>
         <v>16.2</v>
       </c>
       <c r="M2" s="15">
@@ -1875,11 +1899,11 @@
         <v>10</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K23" si="1">J3/((I3-1)/6)</f>
+        <f t="shared" ref="K3:K23" si="2">J3/((I3-1)/6)</f>
         <v>12</v>
       </c>
       <c r="L3" s="15">
-        <f>(J3/((H3-1)/6))/((I3-1)/6)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="M3" s="15">
@@ -1933,11 +1957,11 @@
         <v>10</v>
       </c>
       <c r="K4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L4" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L4" s="15">
-        <f>(J4/((H4-1)/6))/((I4-1)/6)</f>
         <v>18</v>
       </c>
       <c r="M4" s="15">
@@ -1991,11 +2015,11 @@
         <v>10</v>
       </c>
       <c r="K5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L5" s="15">
-        <f>(J5/((H5-1)/6))/((I5-1)/6)</f>
         <v>18</v>
       </c>
       <c r="M5" s="15">
@@ -2049,11 +2073,11 @@
         <v>10</v>
       </c>
       <c r="K6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L6" s="15">
-        <f>(J6/((H6-1)/6))/((I6-1)/6)</f>
         <v>18</v>
       </c>
       <c r="M6" s="15">
@@ -2107,11 +2131,11 @@
         <v>10</v>
       </c>
       <c r="K7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L7" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L7" s="15">
-        <f>(J7/((H7-1)/6))/((I7-1)/6)</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M7" s="15">
@@ -2165,11 +2189,11 @@
         <v>10</v>
       </c>
       <c r="K8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L8" s="15">
-        <f>(J8/((H8-1)/6))/((I8-1)/6)</f>
         <v>18</v>
       </c>
       <c r="M8" s="15">
@@ -2223,11 +2247,11 @@
         <v>10</v>
       </c>
       <c r="K9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L9" s="15">
-        <f>(J9/((H9-1)/6))/((I9-1)/6)</f>
         <v>18</v>
       </c>
       <c r="M9" s="15">
@@ -2283,11 +2307,11 @@
         <v>10</v>
       </c>
       <c r="K10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L10" s="15">
-        <f>(J10/((H10-1)/6))/((I10-1)/6)</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M10" s="15">
@@ -2341,11 +2365,11 @@
         <v>15</v>
       </c>
       <c r="K11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L11" s="15">
-        <f>(J11/((H11-1)/6))/((I11-1)/6)</f>
         <v>27</v>
       </c>
       <c r="M11" s="15">
@@ -2399,11 +2423,11 @@
         <v>7</v>
       </c>
       <c r="K12">
+        <f t="shared" si="2"/>
+        <v>8.4</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="1"/>
-        <v>8.4</v>
-      </c>
-      <c r="L12" s="15">
-        <f>(J12/((H12-1)/6))/((I12-1)/6)</f>
         <v>25.2</v>
       </c>
       <c r="M12" s="15">
@@ -2460,11 +2484,11 @@
         <v>5</v>
       </c>
       <c r="K13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L13" s="15">
-        <f>(J13/((H13-1)/6))/((I13-1)/6)</f>
         <v>9</v>
       </c>
       <c r="M13" s="15">
@@ -2523,11 +2547,11 @@
         <v>5</v>
       </c>
       <c r="K14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L14" s="15">
-        <f>(J14/((H14-1)/6))/((I14-1)/6)</f>
         <v>9</v>
       </c>
       <c r="M14" s="15">
@@ -2583,11 +2607,11 @@
         <v>12</v>
       </c>
       <c r="K15">
+        <f t="shared" si="2"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="L15" s="15">
         <f t="shared" si="1"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="L15" s="15">
-        <f>(J15/((H15-1)/6))/((I15-1)/6)</f>
         <v>28.799999999999997</v>
       </c>
       <c r="M15" s="15">
@@ -2648,11 +2672,11 @@
         <v>5</v>
       </c>
       <c r="K16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L16" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L16" s="15">
-        <f>(J16/((H16-1)/6))/((I16-1)/6)</f>
         <v>9</v>
       </c>
       <c r="M16" s="15">
@@ -2708,11 +2732,11 @@
         <v>12</v>
       </c>
       <c r="K17">
+        <f t="shared" si="2"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="L17" s="15">
         <f t="shared" si="1"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="L17" s="15">
-        <f>(J17/((H17-1)/6))/((I17-1)/6)</f>
         <v>28.799999999999997</v>
       </c>
       <c r="M17" s="15">
@@ -2770,11 +2794,11 @@
         <v>6</v>
       </c>
       <c r="K18">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L18" s="15">
         <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="L18" s="15">
-        <f>(J18/((H18-1)/6))/((I18-1)/6)</f>
         <v>10.799999999999999</v>
       </c>
       <c r="M18" s="15">
@@ -2832,11 +2856,11 @@
         <v>6</v>
       </c>
       <c r="K19">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L19" s="15">
         <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="L19" s="15">
-        <f>(J19/((H19-1)/6))/((I19-1)/6)</f>
         <v>10.799999999999999</v>
       </c>
       <c r="M19" s="15">
@@ -2892,11 +2916,11 @@
         <v>12</v>
       </c>
       <c r="K20">
+        <f t="shared" si="2"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="L20" s="15">
         <f t="shared" si="1"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="L20" s="15">
-        <f>(J20/((H20-1)/6))/((I20-1)/6)</f>
         <v>28.799999999999997</v>
       </c>
       <c r="M20" s="15">
@@ -2955,11 +2979,11 @@
         <v>6</v>
       </c>
       <c r="K21">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L21" s="15">
         <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="L21" s="15">
-        <f>(J21/((H21-1)/6))/((I21-1)/6)</f>
         <v>10.799999999999999</v>
       </c>
       <c r="M21" s="15">
@@ -2981,13 +3005,13 @@
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
+      <c r="A22" s="58">
         <v>21</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="58">
         <v>760</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="53">
         <v>1</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -3013,11 +3037,11 @@
         <v>6</v>
       </c>
       <c r="K22">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L22" s="15">
         <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="L22" s="15">
-        <f>(J22/((H22-1)/6))/((I22-1)/6)</f>
         <v>10.799999999999999</v>
       </c>
       <c r="M22" s="15">
@@ -3041,9 +3065,9 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="88">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="53">
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -3069,11 +3093,11 @@
         <v>12</v>
       </c>
       <c r="K23">
+        <f t="shared" si="2"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="L23" s="15">
         <f t="shared" si="1"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="L23" s="15">
-        <f>(J23/((H23-1)/6))/((I23-1)/6)</f>
         <v>28.799999999999997</v>
       </c>
       <c r="M23" s="15">
@@ -3099,7 +3123,7 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D24" s="89"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="1" t="s">
         <v>79</v>
       </c>
@@ -3115,7 +3139,7 @@
       <c r="I24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="90" t="s">
+      <c r="J24" s="55" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3188,13 +3212,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>129</v>
-      </c>
+    <row r="28" spans="1:40" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="D28" s="93" t="s">
+        <v>129</v>
+      </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
@@ -3275,104 +3299,104 @@
       <c r="AN29" s="47"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="K30" s="53" t="s">
+      <c r="K30" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="L30" s="53" t="s">
+      <c r="L30" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="M30" s="53" t="s">
+      <c r="M30" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="N30" s="53" t="s">
+      <c r="N30" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="O30" s="53" t="s">
+      <c r="O30" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="P30" s="53" t="s">
+      <c r="P30" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="Q30" s="54" t="s">
+      <c r="Q30" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54" t="s">
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54" t="s">
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54" t="s">
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
       <c r="Q31" s="44">
         <v>2</v>
       </c>
@@ -3441,7 +3465,7 @@
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="53">
+      <c r="A32" s="56">
         <v>1</v>
       </c>
       <c r="B32">
@@ -3481,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:O33" si="2">(7-L32)/6+((7-H32-(7-L32))/6*(7-I32)/6)</f>
+        <f t="shared" ref="O32:O33" si="3">(7-L32)/6+((7-H32-(7-L32))/6*(7-I32)/6)</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="P32">
@@ -3492,24 +3516,24 @@
         <v>1.4814814814814814</v>
       </c>
       <c r="S32">
-        <f t="shared" ref="S32:Y33" si="3">$O32*((S$31+$J32)-1)/6*($G32*$C$32+$P32)*$K32</f>
+        <f t="shared" ref="S32:Y33" si="4">$O32*((S$31+$J32)-1)/6*($G32*$C$32+$P32)*$K32</f>
         <v>2.2222222222222223</v>
       </c>
       <c r="U32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9629629629629628</v>
       </c>
       <c r="W32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7037037037037042</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="56"/>
       <c r="E33" t="s">
         <v>134</v>
       </c>
@@ -3538,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P33">
@@ -3549,19 +3573,19 @@
         <v>1.0555555555555556</v>
       </c>
       <c r="S33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="U33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="W33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2222222222222223</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2777777777777768</v>
       </c>
     </row>
@@ -3617,24 +3641,24 @@
         <v>1.5277777777777775</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34:Y34" si="4">$O34*((S$31+$J34)-1)/6*($G34*$C$34+$P34)*$K34</f>
+        <f t="shared" ref="S34:Y34" si="5">$O34*((S$31+$J34)-1)/6*($G34*$C$34+$P34)*$K34</f>
         <v>2.291666666666667</v>
       </c>
       <c r="U34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0555555555555549</v>
       </c>
       <c r="W34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8194444444444438</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5833333333333339</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="53">
+      <c r="A35" s="56">
         <v>3</v>
       </c>
       <c r="B35">
@@ -3674,7 +3698,7 @@
         <v>85</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:O72" si="5">(7-L35)/6+((7-H35-(7-L35))/6*(7-I35)/6)</f>
+        <f t="shared" ref="O35:O72" si="6">(7-L35)/6+((7-H35-(7-L35))/6*(7-I35)/6)</f>
         <v>0.41666666666666663</v>
       </c>
       <c r="P35">
@@ -3685,24 +3709,24 @@
         <v>1.5277777777777775</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35:Y36" si="6">$O35*((S$31+$J35)-1)/6*($G35*$C$35+$P35)*$K35</f>
+        <f t="shared" ref="S35:Y36" si="7">$O35*((S$31+$J35)-1)/6*($G35*$C$35+$P35)*$K35</f>
         <v>2.291666666666667</v>
       </c>
       <c r="U35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0555555555555549</v>
       </c>
       <c r="W35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8194444444444438</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5833333333333339</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="56"/>
       <c r="E36" t="s">
         <v>138</v>
       </c>
@@ -3731,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P36">
@@ -3742,19 +3766,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="S36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6666666666666665</v>
       </c>
     </row>
@@ -3810,24 +3834,24 @@
         <v>5.5</v>
       </c>
       <c r="S37">
-        <f t="shared" ref="S37:Y37" si="7">((1/6)+$O37*((S$31+$J37)-1)/6)*($G37*$C$37+$P37)*$K37</f>
+        <f t="shared" ref="S37:Y37" si="8">((1/6)+$O37*((S$31+$J37)-1)/6)*($G37*$C$37+$P37)*$K37</f>
         <v>6.4166666666666661</v>
       </c>
       <c r="U37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.333333333333333</v>
       </c>
       <c r="W37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.25</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.1666666666666661</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="53">
+      <c r="A38" s="56">
         <v>5</v>
       </c>
       <c r="B38">
@@ -3870,7 +3894,7 @@
         <v>168</v>
       </c>
       <c r="O38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="P38">
@@ -3881,24 +3905,24 @@
         <v>2.2222222222222219</v>
       </c>
       <c r="S38">
-        <f t="shared" ref="S38:Y39" si="8">$O38*((S$31+$J38)-1)/6*($G38*$C$38+$P38)*$K38</f>
+        <f t="shared" ref="S38:Y39" si="9">$O38*((S$31+$J38)-1)/6*($G38*$C$38+$P38)*$K38</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="U38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4444444444444438</v>
       </c>
       <c r="W38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5555555555555545</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="56"/>
       <c r="E39" t="s">
         <v>140</v>
       </c>
@@ -3927,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P39">
@@ -3938,19 +3962,19 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="S39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2222222222222221</v>
       </c>
       <c r="U39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="W39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4444444444444442</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0555555555555549</v>
       </c>
     </row>
@@ -3998,7 +4022,7 @@
         <v>167</v>
       </c>
       <c r="O40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="P40">
@@ -4009,19 +4033,19 @@
         <v>2.1527777777777772</v>
       </c>
       <c r="S40">
-        <f t="shared" ref="S40:Y40" si="9">$O40*((S$31+$J40)-1)/6*($G40*$C$40+$P40)*$K40</f>
+        <f t="shared" ref="S40:Y40" si="10">$O40*((S$31+$J40)-1)/6*($G40*$C$40+$P40)*$K40</f>
         <v>4.3055555555555545</v>
       </c>
       <c r="U40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4583333333333339</v>
       </c>
       <c r="W40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6111111111111089</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.763888888888888</v>
       </c>
     </row>
@@ -4069,7 +4093,7 @@
         <v>169</v>
       </c>
       <c r="O41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="P41">
@@ -4080,19 +4104,19 @@
         <v>1.458333333333333</v>
       </c>
       <c r="S41">
-        <f t="shared" ref="S41:Y41" si="10">$O41*((S$31+$J41)-1)/6*($G41*$C$41+$P41)*$K41</f>
+        <f t="shared" ref="S41:Y41" si="11">$O41*((S$31+$J41)-1)/6*($G41*$C$41+$P41)*$K41</f>
         <v>2.9166666666666661</v>
       </c>
       <c r="U41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.375</v>
       </c>
       <c r="W41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8333333333333321</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2916666666666652</v>
       </c>
     </row>
@@ -4140,7 +4164,7 @@
         <v>172</v>
       </c>
       <c r="O42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P42">
@@ -4151,19 +4175,19 @@
         <v>1.1666666666666665</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="S42:Y42" si="11">$O42*((S$31+$J42)-1)/6*($G42*$C$42+$P42)*$K42</f>
+        <f t="shared" ref="S42:Y42" si="12">$O42*((S$31+$J42)-1)/6*($G42*$C$42+$P42)*$K42</f>
         <v>2.333333333333333</v>
       </c>
       <c r="U42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="W42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6666666666666661</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.8333333333333321</v>
       </c>
     </row>
@@ -4211,7 +4235,7 @@
         <v>172</v>
       </c>
       <c r="O43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P43">
@@ -4222,24 +4246,24 @@
         <v>1.7222222222222221</v>
       </c>
       <c r="S43">
-        <f t="shared" ref="S43:Y43" si="12">$O43*((S$31+$J43)-1)/6*($G43*$C$43+$P43)*$K43</f>
+        <f t="shared" ref="S43:Y43" si="13">$O43*((S$31+$J43)-1)/6*($G43*$C$43+$P43)*$K43</f>
         <v>3.4444444444444442</v>
       </c>
       <c r="U43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.1666666666666661</v>
       </c>
       <c r="W43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.8888888888888884</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.6111111111111089</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="53">
+      <c r="A44" s="56">
         <v>10</v>
       </c>
       <c r="B44">
@@ -4279,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P44">
@@ -4290,24 +4314,24 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="S44">
-        <f t="shared" ref="S44:Y46" si="13">$O44*((S$31+$J44)-1)/6*($G44*$C$44+$P44)*$K44</f>
+        <f t="shared" ref="S44:Y46" si="14">$O44*((S$31+$J44)-1)/6*($G44*$C$44+$P44)*$K44</f>
         <v>1.2222222222222221</v>
       </c>
       <c r="U44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="W44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.4444444444444442</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0555555555555549</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="56"/>
       <c r="E45" t="s">
         <v>146</v>
       </c>
@@ -4336,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P45">
@@ -4347,24 +4371,24 @@
         <v>1.2222222222222221</v>
       </c>
       <c r="S45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="U45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.4444444444444442</v>
       </c>
       <c r="W45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0555555555555549</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="56"/>
       <c r="E46" t="s">
         <v>147</v>
       </c>
@@ -4393,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="P46">
@@ -4404,24 +4428,24 @@
         <v>0.40740740740740738</v>
       </c>
       <c r="S46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.81481481481481477</v>
       </c>
       <c r="U46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2222222222222221</v>
       </c>
       <c r="W46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6296296296296295</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0370370370370372</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="53">
+      <c r="A47" s="56">
         <v>11</v>
       </c>
       <c r="B47">
@@ -4461,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P47">
@@ -4472,24 +4496,24 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47:Y48" si="14">$O47*((S$31+$J47)-1)/6*($G47*$C$47+$P47)*$K47</f>
+        <f t="shared" ref="S47:Y48" si="15">$O47*((S$31+$J47)-1)/6*($G47*$C$47+$P47)*$K47</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="U47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="W47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="56"/>
       <c r="E48" t="s">
         <v>149</v>
       </c>
@@ -4518,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P48">
@@ -4529,15 +4553,15 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="S48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="U48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5555555555555562</v>
       </c>
       <c r="W48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.666666666666667</v>
       </c>
       <c r="Y48">
@@ -4586,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P49">
@@ -4597,19 +4621,19 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49:Y49" si="15">$O49*((S$31+$J49)-1)/6*($G49*$C$49+$P49)*$K49</f>
+        <f t="shared" ref="S49:Y49" si="16">$O49*((S$31+$J49)-1)/6*($G49*$C$49+$P49)*$K49</f>
         <v>2</v>
       </c>
       <c r="U49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="W49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.333333333333333</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
@@ -4654,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P50">
@@ -4665,24 +4689,24 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="S50">
-        <f t="shared" ref="S50:Y50" si="16">$O50*((S$31+$J50)-1)/6*($G50*$C$50+$P50)*$K50</f>
+        <f t="shared" ref="S50:Y50" si="17">$O50*((S$31+$J50)-1)/6*($G50*$C$50+$P50)*$K50</f>
         <v>2</v>
       </c>
       <c r="U50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="W50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.333333333333333</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="53">
+      <c r="A51" s="56">
         <v>14</v>
       </c>
       <c r="B51">
@@ -4722,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P51">
@@ -4733,24 +4757,24 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="S51">
-        <f t="shared" ref="S51:Y54" si="17">$O51*((S$31+$J51)-1)/6*($G51*$C$51+$P51)*$K51</f>
+        <f t="shared" ref="S51:Y54" si="18">$O51*((S$31+$J51)-1)/6*($G51*$C$51+$P51)*$K51</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="U51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="W51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="56"/>
       <c r="E52" t="s">
         <v>152</v>
       </c>
@@ -4779,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P52">
@@ -4790,24 +4814,24 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="S52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="U52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="W52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.333333333333333</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="56"/>
       <c r="E53" t="s">
         <v>149</v>
       </c>
@@ -4836,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P53">
@@ -4847,15 +4871,15 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="S53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="U53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.5555555555555562</v>
       </c>
       <c r="W53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.666666666666667</v>
       </c>
       <c r="Y53">
@@ -4864,7 +4888,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="56"/>
       <c r="E54" t="s">
         <v>153</v>
       </c>
@@ -4893,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P54">
@@ -4904,19 +4928,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="S54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.6666666666666665</v>
       </c>
     </row>
@@ -4972,24 +4996,24 @@
         <v>2</v>
       </c>
       <c r="S55">
-        <f t="shared" ref="S55:Y55" si="18">((1/6)+$O55*((S$31+$J55)-1)/6)*($G55*$C$55+$P55)*$K55</f>
+        <f t="shared" ref="S55:Y55" si="19">((1/6)+$O55*((S$31+$J55)-1)/6)*($G55*$C$55+$P55)*$K55</f>
         <v>2.333333333333333</v>
       </c>
       <c r="U55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="W55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.333333333333333</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="53">
+      <c r="A56" s="56">
         <v>16</v>
       </c>
       <c r="B56">
@@ -5029,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P56">
@@ -5040,24 +5064,24 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="S56">
-        <f t="shared" ref="S56:Y59" si="19">$O56*((S$31+$J56)-1)/6*($G56*$C$56+$P56)*$K56</f>
+        <f t="shared" ref="S56:Y59" si="20">$O56*((S$31+$J56)-1)/6*($G56*$C$56+$P56)*$K56</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="U56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="W56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="56"/>
       <c r="E57" t="s">
         <v>154</v>
       </c>
@@ -5097,24 +5121,24 @@
         <v>2</v>
       </c>
       <c r="S57">
-        <f t="shared" ref="S57:Y57" si="20">(($K$57/6)+$O57*((S$31+$J57)-1)/6)*($G57*$C$56+$P57)*$K57</f>
+        <f t="shared" ref="S57:Y57" si="21">(($K$57/6)+$O57*((S$31+$J57)-1)/6)*($G57*$C$56+$P57)*$K57</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="U57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="W57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.333333333333333</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.6666666666666661</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="56"/>
       <c r="E58" t="s">
         <v>149</v>
       </c>
@@ -5143,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P58">
@@ -5154,15 +5178,15 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="S58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="U58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.5555555555555562</v>
       </c>
       <c r="W58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.666666666666667</v>
       </c>
       <c r="Y58">
@@ -5171,7 +5195,7 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="56"/>
       <c r="E59" t="s">
         <v>153</v>
       </c>
@@ -5200,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P59">
@@ -5211,24 +5235,24 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="S59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="W59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="53">
+      <c r="A60" s="56">
         <v>17</v>
       </c>
       <c r="B60">
@@ -5268,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P60">
@@ -5279,24 +5303,24 @@
         <v>0.59259259259259256</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="S60:Y61" si="21">$O60*((S$31+$J60)-1)/6*($G60*$C$60+$P60)*$K60</f>
+        <f t="shared" ref="S60:Y61" si="22">$O60*((S$31+$J60)-1)/6*($G60*$C$60+$P60)*$K60</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="U60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1851851851851851</v>
       </c>
       <c r="W60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4814814814814816</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="56"/>
       <c r="E61" t="s">
         <v>155</v>
       </c>
@@ -5325,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="P61">
@@ -5336,24 +5360,24 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="S61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="U61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.333333333333333</v>
       </c>
       <c r="W61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.1666666666666661</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="53">
+      <c r="A62" s="56">
         <v>18</v>
       </c>
       <c r="B62">
@@ -5387,14 +5411,14 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97222222222222232</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62" t="e">
-        <f t="shared" ref="Q62" si="22">$O62*((Q$31+$J62)-1)/6*($G62*$C$32+P62)*$K62</f>
+        <f t="shared" ref="Q62" si="23">$O62*((Q$31+$J62)-1)/6*($G62*$C$32+P62)*$K62</f>
         <v>#VALUE!</v>
       </c>
       <c r="S62" t="e">
@@ -5415,7 +5439,7 @@
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="56"/>
       <c r="E63" t="s">
         <v>157</v>
       </c>
@@ -5444,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P63">
@@ -5455,24 +5479,24 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="S63">
-        <f t="shared" ref="S63:Y63" si="23">$O63*((S$31+$J63)-1)/6*($G63*$C$62+$P63)*$K63</f>
+        <f t="shared" ref="S63:Y63" si="24">$O63*((S$31+$J63)-1)/6*($G63*$C$62+$P63)*$K63</f>
         <v>1.6666666666666665</v>
       </c>
       <c r="U63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="W63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.7777777777777772</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.333333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="53">
+      <c r="A64" s="56">
         <v>19</v>
       </c>
       <c r="B64">
@@ -5506,14 +5530,14 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97222222222222232</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64" t="e">
-        <f t="shared" ref="Q64" si="24">$O64*((Q$31+$J64)-1)/6*($G64*$C$32+P64)*$K64</f>
+        <f t="shared" ref="Q64" si="25">$O64*((Q$31+$J64)-1)/6*($G64*$C$32+P64)*$K64</f>
         <v>#VALUE!</v>
       </c>
       <c r="S64" t="e">
@@ -5534,7 +5558,7 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="56"/>
       <c r="E65" t="s">
         <v>157</v>
       </c>
@@ -5563,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P65">
@@ -5574,15 +5598,15 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="S65">
-        <f t="shared" ref="S65:Y66" si="25">$O65*((S$31+$J65)-1)/6*($G65*$C$64+$P65)*$K65</f>
+        <f t="shared" ref="S65:Y66" si="26">$O65*((S$31+$J65)-1)/6*($G65*$C$64+$P65)*$K65</f>
         <v>2.2222222222222223</v>
       </c>
       <c r="U65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.7777777777777772</v>
       </c>
       <c r="W65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.333333333333333</v>
       </c>
       <c r="Y65">
@@ -5591,7 +5615,7 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="56"/>
       <c r="E66" t="s">
         <v>159</v>
       </c>
@@ -5620,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P66">
@@ -5631,19 +5655,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="S66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="U66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="W66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
     </row>
@@ -5688,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P67">
@@ -5699,27 +5723,27 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:Y67" si="26">$O67*((S$31+$J67)-1)/6*($G67*$C$67+$P67)*$K67</f>
+        <f t="shared" ref="S67:Y67" si="27">$O67*((S$31+$J67)-1)/6*($G67*$C$67+$P67)*$K67</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="U67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="W67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.2222222222222219</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="53">
+      <c r="A68" s="56">
         <v>21</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="56">
         <v>760</v>
       </c>
       <c r="C68" s="43">
@@ -5756,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P68">
@@ -5767,15 +5791,15 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:W68" si="27">$O68*((S$31+$J68)-1)/6*($G68*$C$68+$P68)*$K68</f>
+        <f t="shared" ref="S68:W68" si="28">$O68*((S$31+$J68)-1)/6*($G68*$C$68+$P68)*$K68</f>
         <v>2.2222222222222223</v>
       </c>
       <c r="U68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.7777777777777772</v>
       </c>
       <c r="W68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.333333333333333</v>
       </c>
       <c r="Y68">
@@ -5784,8 +5808,8 @@
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="43">
         <v>1</v>
       </c>
@@ -5820,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69444444444444453</v>
       </c>
       <c r="P69">
@@ -5831,11 +5855,11 @@
         <v>1.6203703703703707</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:Y72" si="28">$O69*((S$31+$J69)-1)/6*($G69*$C$69+$P69)*$K69</f>
+        <f t="shared" ref="S69:Y72" si="29">$O69*((S$31+$J69)-1)/6*($G69*$C$69+$P69)*$K69</f>
         <v>2.0254629629629632</v>
       </c>
       <c r="U69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.4305555555555558</v>
       </c>
       <c r="W69">
@@ -5887,15 +5911,15 @@
         <v>8</v>
       </c>
       <c r="S70">
-        <f t="shared" ref="S70:W70" si="29">(($K$70/6)+$O70*((S$31+$J70)-1)/6)*($G70*$C$69+$P70)*$K70</f>
+        <f t="shared" ref="S70:W70" si="30">(($K$70/6)+$O70*((S$31+$J70)-1)/6)*($G70*$C$69+$P70)*$K70</f>
         <v>17.333333333333332</v>
       </c>
       <c r="U70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18.666666666666664</v>
       </c>
       <c r="W70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="Y70">
@@ -5932,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="P71">
@@ -5943,19 +5967,19 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="S71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="U71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.875</v>
       </c>
       <c r="W71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.1666666666666665</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.4583333333333335</v>
       </c>
     </row>
@@ -5988,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P72">
@@ -5999,15 +6023,15 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="S72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="U72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="W72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="Y72">
@@ -6017,20 +6041,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="AJ30:AN30"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A39"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="Q30:Y30"/>
@@ -6043,14 +6053,28 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
+    <mergeCell ref="AJ30:AN30"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
     <mergeCell ref="N30:N31"/>
     <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6315,25 +6339,25 @@
       <c r="CO2" s="15"/>
     </row>
     <row r="3" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="63">
         <v>10</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="59">
         <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="59">
         <v>1</v>
       </c>
       <c r="F3" s="13">
         <v>6</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="59">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -6432,17 +6456,17 @@
       <c r="CO3" s="15"/>
     </row>
     <row r="4" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="86"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="86"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="14">
         <v>6</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
@@ -6539,25 +6563,25 @@
       <c r="CO4" s="15"/>
     </row>
     <row r="5" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="63">
         <v>10</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="59">
         <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="59">
         <v>1</v>
       </c>
       <c r="F5" s="13">
         <v>6</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="59">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -6656,17 +6680,17 @@
       <c r="CO5" s="15"/>
     </row>
     <row r="6" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="86"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="14">
         <v>6</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
@@ -6763,25 +6787,25 @@
       <c r="CO6" s="15"/>
     </row>
     <row r="7" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="63">
         <v>5</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="59">
         <v>15</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="59">
         <v>10</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="59">
         <v>1</v>
       </c>
       <c r="F7" s="13">
         <v>8</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="59">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -6880,15 +6904,15 @@
       <c r="CO7" s="15"/>
     </row>
     <row r="8" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="14">
         <v>8</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
@@ -6985,25 +7009,25 @@
       <c r="CO8" s="15"/>
     </row>
     <row r="9" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="63">
         <v>5</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="59">
         <v>15</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="59">
         <v>10</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="59">
         <v>1</v>
       </c>
       <c r="F9" s="13">
         <v>12</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="59">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -7102,15 +7126,15 @@
       <c r="CO9" s="15"/>
     </row>
     <row r="10" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="14">
         <v>12</v>
       </c>
-      <c r="G10" s="86"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="2" t="s">
         <v>25</v>
       </c>
@@ -7435,104 +7459,104 @@
       <c r="CO12" s="15"/>
     </row>
     <row r="13" spans="1:93" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="65">
-        <v>1</v>
-      </c>
-      <c r="C13" s="68">
+      <c r="B13" s="73">
+        <v>1</v>
+      </c>
+      <c r="C13" s="70">
         <v>50</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="70">
         <v>25</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="70">
         <v>5</v>
       </c>
-      <c r="F13" s="68">
-        <v>6</v>
-      </c>
-      <c r="G13" s="65">
+      <c r="F13" s="70">
+        <v>6</v>
+      </c>
+      <c r="G13" s="73">
         <v>3</v>
       </c>
-      <c r="H13" s="78" t="s">
+      <c r="H13" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="65" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:93" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="72"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:93" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="73"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="55">
-        <v>1</v>
-      </c>
-      <c r="C16" s="55">
+      <c r="B16" s="67">
+        <v>1</v>
+      </c>
+      <c r="C16" s="67">
         <v>40</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="67">
         <v>10</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="67">
         <v>2</v>
       </c>
-      <c r="F16" s="55">
-        <v>6</v>
-      </c>
-      <c r="G16" s="55">
+      <c r="F16" s="67">
+        <v>6</v>
+      </c>
+      <c r="G16" s="67">
         <v>2</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="74" t="s">
+      <c r="K16" s="67"/>
+      <c r="L16" s="69" t="s">
         <v>61</v>
       </c>
       <c r="M16" s="15"/>
@@ -7618,18 +7642,18 @@
       <c r="CO16" s="15"/>
     </row>
     <row r="17" spans="1:93" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="73"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
@@ -8098,28 +8122,14 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="L16:L17"/>
@@ -8136,14 +8146,28 @@
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="H13:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8153,7 +8177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E07967B-C483-43F8-A0B6-7D00D3280B60}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -8226,35 +8250,35 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
-        <v>1</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="53" t="s">
+      <c r="A2" s="56">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="56">
         <v>10</v>
       </c>
-      <c r="E2" s="53">
-        <v>1</v>
-      </c>
-      <c r="F2" s="53">
-        <v>6</v>
-      </c>
-      <c r="G2" s="53">
+      <c r="E2" s="56">
+        <v>1</v>
+      </c>
+      <c r="F2" s="56">
+        <v>6</v>
+      </c>
+      <c r="G2" s="56">
         <v>2</v>
       </c>
-      <c r="H2" s="53">
-        <v>0</v>
-      </c>
-      <c r="I2" s="53">
-        <v>1</v>
-      </c>
-      <c r="J2" s="53">
+      <c r="H2" s="56">
+        <v>0</v>
+      </c>
+      <c r="I2" s="56">
+        <v>1</v>
+      </c>
+      <c r="J2" s="56">
         <v>2</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="90" t="s">
         <v>209</v>
       </c>
       <c r="L2" t="s">
@@ -8274,17 +8298,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="91"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="90"/>
       <c r="L3" t="s">
         <v>204</v>
       </c>
@@ -8302,7 +8326,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -8322,22 +8346,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
